--- a/5_Snowballing/Merged_Studies_3.xlsx
+++ b/5_Snowballing/Merged_Studies_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniotrovato/Documents/GitHub/RegressionTestingOptimizationSLR/5_Snowballing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30BDB36-B241-914D-A3BF-D93A1E4585A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8852483E-D4B0-7F48-B608-C75342FD5D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1660" yWindow="1920" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2200" yWindow="3000" windowWidth="39000" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="1325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1798" uniqueCount="1335">
   <si>
     <t>ID</t>
   </si>
@@ -4050,6 +4050,45 @@
   </si>
   <si>
     <t>Regression testing is carried out to ensure that changes or enhancements are not impacting previous working software. Deciding how much retesting is required after modifications, bug fixes or before product deployments are difficult. Therefore, Test Case Selection (TCS) select the satisfactory subset of modified test cases from already executed test suites. The testing primary concerns in TCS for regression testing are efficiency (i.e., coverage, fault detection ability, redundancy) and time. The first challenge in TCS concerns the efficiency of multi-objective test case selection. The second challenge is to improve the execution time to detect the changes in a test suite, which makes it impractical to use these efficiency measures as a single goal for TCS. To overcome these challenges, there is a need to introduce an efficient detection-based multi-objective framework to improve the Time and efficiency of TCS. A multi-objective advanced and efficient regression test case selection (ARTeCS) framework is devised to improve the time performance and efficiency of a given TCS objective relative to the other TCS approaches. An algorithm to detect the changes in test cases using multiple TCS objectives. This comparison found that the enhanced ARTeCS algorithm improves redundancy efficiency by 44.02%. The selection technique showed ARTeCS improved the modified change detection by 43.00%, whereas the Hybrid Whale Optimization Algorithm (HWOA) stated 23% and ACO showed 33% only for selected test cases. Regarding average for fault detection, ACO scores 21%, HWOA scores 11%, and ARTeCS scores 31.08% with total execution times of 12, 21 and 09 seconds, respectively. In conclusion, the multiple-objective ARTeCS framework with four test suite selection parameters is more efficient than the existing multi-objective selection framework.</t>
+  </si>
+  <si>
+    <t>Evaluating Search-Based Software Microbenchmark Prioritization</t>
+  </si>
+  <si>
+    <t>Christoph Laaber; Tao Yue; Shaukat Ali</t>
+  </si>
+  <si>
+    <t>Ensuring that software performance does not degrade after a code change is paramount. A solution is to regularly execute software microbenchmarks, a performance testing technique similar to (functional) unit tests, which, however, often becomes infeasible due to extensive runtimes. To address that challenge, research has investigated regression testing techniques, such as test case prioritization (TCP), which reorder the execution within a microbenchmark suite to detect larger performance changes sooner. Such techniques are either designed for unit tests and perform sub-par on microbenchmarks or require complex performance models, drastically reducing their potential application. In this paper, we empirically evaluate single- and multi-objective search-based microbenchmark prioritization techniques to understand whether they are more effective and efficient than greedy, coverage-based techniques. For this, we devise three search objectives, i.e., coverage to maximize, coverage overlap to minimize, and historical performance change detection to maximize. We find that search algorithms (SAs) are only competitive with but do not outperform the best greedy, coverage-based baselines. However, a simple greedy technique utilizing solely the performance change history (without coverage information) is equally or more effective than the best coverage-based techniques while being considerably more efficient, with a runtime overhead of less than 1%. These results show that simple, non-coverage-based techniques are a better fit for microbenchmarks than complex coverage-based techniques.</t>
+  </si>
+  <si>
+    <t>Prioritizing versions for performance regression testing: The Pharo case</t>
+  </si>
+  <si>
+    <t>Juan Pablo Sandoval Alcocer, Alexandre Bergel, Marco Tulio Valente</t>
+  </si>
+  <si>
+    <t>Science of Computer Programming</t>
+  </si>
+  <si>
+    <t>Context
+Software performance may suffer regressions caused by source code changes. Measuring performance at each new software version is useful for early detection of performance regressions. However, systematically running benchmarks is often impractical (e.g., long running execution, prioritizing functional correctness over non-functional).
+Objective
+In this article, we propose Horizontal Profiling, a sampling technique to predict when a new revision may cause a regression by analyzing the source code and using run-time information of a previous version. The goal of Horizontal Profiling is to reduce the performance testing overhead by benchmarking just software versions that contain costly source code changes.
+Method
+We present an evaluation in which we apply Horizontal Profiling to identify performance regressions of 17 software projects written in the Pharo programming language, totaling 1,288 software versions.
+Results
+Horizontal Profiling detects more than 80% of the regressions by benchmarking less than 20% of the versions. In addition, our experiments show that Horizontal Profiling has better precision and executes the benchmarks in less versions that the state of the art tools, under our benchmarks.
+Conclusions
+We conclude that by adequately characterizing the run-time information of a previous version, it is possible to determine if a new version is likely to introduce a performance regression or not. As a consequence, a significant fraction of the performance regressions are identified by benchmarking only a small fraction of the software versions.</t>
+  </si>
+  <si>
+    <t>Input-based adaptive randomized test case prioritization: A local beam search approach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bo Jiang,W.K. Chan </t>
+  </si>
+  <si>
+    <t>Test case prioritization assigns the execution priorities of the test cases in a given test suite. Many existing test case prioritization techniques assume the full-fledged availability of code coverage data, fault history, or test specification, which are seldom well-maintained in real-world software development projects. This paper proposes a novel family of input-based local-beam-search adaptive-randomized techniques. They make adaptive tree-based randomized explorations with a randomized candidate test set strategy to even out the search space explorations among the branches of the exploration trees constructed by the test inputs in the test suite. We report a validation experiment on a suite of four medium-size benchmarks. The results show that our techniques achieve either higher APFD values than or the same mean APFD values as the existing code-coverage-based greedy or search-based prioritization techniques, including Genetic, Greedy and ART, in both our controlled experiment and case study. Our techniques are also significantly more efficient than the Genetic and Greedy, but are less efficient than ART.</t>
   </si>
 </sst>
 </file>
@@ -4119,12 +4158,15 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -4430,10 +4472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN207"/>
+  <dimension ref="A1:AN210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="D113" sqref="D113"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F164" sqref="F164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10283,6 +10325,9 @@
       <c r="E163" t="s">
         <v>1156</v>
       </c>
+      <c r="F163">
+        <v>2015</v>
+      </c>
       <c r="J163" t="s">
         <v>1157</v>
       </c>
@@ -11164,6 +11209,66 @@
         <v>1324</v>
       </c>
       <c r="AN207" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="208" spans="3:40" x14ac:dyDescent="0.2">
+      <c r="C208" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D208" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E208" t="s">
+        <v>1325</v>
+      </c>
+      <c r="F208">
+        <v>2024</v>
+      </c>
+      <c r="J208" t="s">
+        <v>1327</v>
+      </c>
+      <c r="AN208" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="209" spans="3:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C209" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D209" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E209" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F209">
+        <v>2020</v>
+      </c>
+      <c r="J209" s="3" t="s">
+        <v>1331</v>
+      </c>
+      <c r="AN209" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="210" spans="3:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C210" s="3" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D210" t="s">
+        <v>823</v>
+      </c>
+      <c r="E210" t="s">
+        <v>1332</v>
+      </c>
+      <c r="F210">
+        <v>2015</v>
+      </c>
+      <c r="J210" t="s">
+        <v>1334</v>
+      </c>
+      <c r="AN210" t="s">
         <v>953</v>
       </c>
     </row>

--- a/5_Snowballing/Merged_Studies_3.xlsx
+++ b/5_Snowballing/Merged_Studies_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniotrovato/Documents/GitHub/RegressionTestingOptimizationSLR/5_Snowballing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8852483E-D4B0-7F48-B608-C75342FD5D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFFA1FE-D308-B548-B5B9-E7367C3B06CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="3000" windowWidth="39000" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1798" uniqueCount="1335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1793" uniqueCount="1331">
   <si>
     <t>ID</t>
   </si>
@@ -3684,27 +3684,6 @@
   </si>
   <si>
     <t>Regression testing is crucial but can be extremely costly. Regression Test Selection (RTS) aims to reduce regression testing cost by only selecting and running the tests that may be affected by code changes. To date, various RTS techniques analyzing at different granularities (e.g., at the basic-block, method, and file levels) have been proposed. RTS techniques working on finer granularities may be more precise in selecting tests, while techniques working on coarser granularities may have lower overhead. According to a recent study, RTS at the file level (FRTS) can have less overall testing time compared with a finer grained technique at the method level, and represents state-of-the-art RTS. In this paper, we present the first hybrid RTS approach, HyRTS, that analyzes at multiple granularities to combine the strengths of traditional RTS techniques at different granularities. We implemented the basic HyRTS technique by combining the method and file granularity RTS. The experimental results on 2707 revisions of 32 projects, totalling over 124 Million LoC, demonstrate that HyRTS outperforms state-of-the-art FRTS significantly in terms of selected test ratio and the offline testing time. We also studied the impacts of each type of method-level changes, and further designed two new HyRTS variants based on the study results. Our additional experiments show that transforming instance method additions/deletions into file-level changes produces an even more effective HyRTS variant that can significantly outperform FRTS in both offline and online testing time.</t>
-  </si>
-  <si>
-    <t>R Greca, B Miranda, A Bertolino</t>
-  </si>
-  <si>
-    <t>ACM Computing Surveys, 2023</t>
-  </si>
-  <si>
-    <t>State of practical applicability of regression testing research: A live systematic literature review</t>
-  </si>
-  <si>
-    <t>Context
-Software regression testing refers to rerunning test cases after the system under test is modified, ascertaining that the changes have not (re-)introduced failures. Not all researchers’ approaches consider applicability and scalability concerns, and not many have produced an impact in practice.
-Objective
-One goal is to investigate industrial relevance and applicability of proposed approaches. Another is providing a live review, open to continuous updates by the community.
-Method
-A systematic review of regression testing studies that are clearly motivated by or validated against industrial relevance and applicability is conducted. It is complemented by follow-up surveys with authors of the selected papers and 23 practitioners.
-Results
-A set of 79 primary studies published between 2016–2022 is collected and classified according to approaches and metrics. Aspects relative to their relevance and impact are discussed, also based on their authors’ feedback. All the data are made available from the live repository that accompanies the study.
-Conclusions
-While widely motivated by industrial relevance and applicability, not many approaches are evaluated in industrial or large-scale open-source systems, and even fewer approaches have been adopted in practice. Some challenges hindering the implementation of relevant approaches are synthesized, also based on the practitioners’ feedback.</t>
   </si>
   <si>
     <t>Shouvick Mondal, Rupesh Nasre</t>
@@ -4472,10 +4451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN210"/>
+  <dimension ref="A1:AN209"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F164" sqref="F164"/>
+    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="A177" sqref="A177:XFD177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10600,33 +10579,33 @@
         <v>1206</v>
       </c>
       <c r="D177" t="s">
+        <v>823</v>
+      </c>
+      <c r="E177" t="s">
         <v>1207</v>
       </c>
-      <c r="E177" t="s">
+      <c r="F177">
+        <v>2021</v>
+      </c>
+      <c r="J177" t="s">
         <v>1208</v>
       </c>
-      <c r="F177">
-        <v>2023</v>
-      </c>
-      <c r="J177" t="s">
-        <v>1209</v>
-      </c>
       <c r="AN177" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="178" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C178" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D178" t="s">
         <v>1210</v>
-      </c>
-      <c r="D178" t="s">
-        <v>823</v>
       </c>
       <c r="E178" t="s">
         <v>1211</v>
       </c>
       <c r="F178">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="J178" t="s">
         <v>1212</v>
@@ -10646,13 +10625,13 @@
         <v>1215</v>
       </c>
       <c r="F179">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="J179" t="s">
         <v>1216</v>
       </c>
       <c r="AN179" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="180" spans="3:40" x14ac:dyDescent="0.2">
@@ -10666,13 +10645,13 @@
         <v>1219</v>
       </c>
       <c r="F180">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="J180" t="s">
         <v>1220</v>
       </c>
       <c r="AN180" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="181" spans="3:40" x14ac:dyDescent="0.2">
@@ -10706,7 +10685,7 @@
         <v>1227</v>
       </c>
       <c r="F182">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="J182" t="s">
         <v>1228</v>
@@ -10726,7 +10705,7 @@
         <v>1231</v>
       </c>
       <c r="F183">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="J183" t="s">
         <v>1232</v>
@@ -10746,7 +10725,7 @@
         <v>1235</v>
       </c>
       <c r="F184">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="J184" t="s">
         <v>1236</v>
@@ -10766,13 +10745,13 @@
         <v>1239</v>
       </c>
       <c r="F185">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="J185" t="s">
         <v>1240</v>
       </c>
       <c r="AN185" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="186" spans="3:40" x14ac:dyDescent="0.2">
@@ -10792,7 +10771,7 @@
         <v>1244</v>
       </c>
       <c r="AN186" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="187" spans="3:40" x14ac:dyDescent="0.2">
@@ -10806,7 +10785,7 @@
         <v>1247</v>
       </c>
       <c r="F187">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="J187" t="s">
         <v>1248</v>
@@ -10826,13 +10805,13 @@
         <v>1251</v>
       </c>
       <c r="F188">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="J188" t="s">
         <v>1252</v>
       </c>
       <c r="AN188" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="189" spans="3:40" x14ac:dyDescent="0.2">
@@ -10846,7 +10825,7 @@
         <v>1255</v>
       </c>
       <c r="F189">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="J189" t="s">
         <v>1256</v>
@@ -10866,7 +10845,7 @@
         <v>1259</v>
       </c>
       <c r="F190">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="J190" t="s">
         <v>1260</v>
@@ -10906,7 +10885,7 @@
         <v>1267</v>
       </c>
       <c r="F192">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="J192" t="s">
         <v>1268</v>
@@ -10966,7 +10945,7 @@
         <v>1279</v>
       </c>
       <c r="F195">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="J195" t="s">
         <v>1280</v>
@@ -10986,7 +10965,7 @@
         <v>1283</v>
       </c>
       <c r="F196">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="J196" t="s">
         <v>1284</v>
@@ -11006,7 +10985,7 @@
         <v>1287</v>
       </c>
       <c r="F197">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="J197" t="s">
         <v>1288</v>
@@ -11046,7 +11025,7 @@
         <v>1295</v>
       </c>
       <c r="F199">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="J199" t="s">
         <v>1296</v>
@@ -11066,7 +11045,7 @@
         <v>1299</v>
       </c>
       <c r="F200">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="J200" t="s">
         <v>1300</v>
@@ -11080,16 +11059,16 @@
         <v>1301</v>
       </c>
       <c r="D201" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E201" t="s">
         <v>1302</v>
       </c>
-      <c r="E201" t="s">
+      <c r="F201">
+        <v>2023</v>
+      </c>
+      <c r="J201" t="s">
         <v>1303</v>
-      </c>
-      <c r="F201">
-        <v>2019</v>
-      </c>
-      <c r="J201" t="s">
-        <v>1304</v>
       </c>
       <c r="AN201" t="s">
         <v>953</v>
@@ -11097,16 +11076,16 @@
     </row>
     <row r="202" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C202" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D202" t="s">
         <v>1305</v>
-      </c>
-      <c r="D202" t="s">
-        <v>1290</v>
       </c>
       <c r="E202" t="s">
         <v>1306</v>
       </c>
       <c r="F202">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="J202" t="s">
         <v>1307</v>
@@ -11123,13 +11102,13 @@
         <v>1309</v>
       </c>
       <c r="E203" t="s">
-        <v>1310</v>
+        <v>1207</v>
       </c>
       <c r="F203">
         <v>2021</v>
       </c>
       <c r="J203" t="s">
-        <v>1311</v>
+        <v>1208</v>
       </c>
       <c r="AN203" t="s">
         <v>953</v>
@@ -11137,19 +11116,19 @@
     </row>
     <row r="204" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C204" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D204" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E204" t="s">
         <v>1312</v>
       </c>
-      <c r="D204" t="s">
+      <c r="F204">
+        <v>2022</v>
+      </c>
+      <c r="J204" t="s">
         <v>1313</v>
-      </c>
-      <c r="E204" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F204">
-        <v>2021</v>
-      </c>
-      <c r="J204" t="s">
-        <v>1212</v>
       </c>
       <c r="AN204" t="s">
         <v>953</v>
@@ -11159,116 +11138,96 @@
       <c r="C205" t="s">
         <v>1314</v>
       </c>
-      <c r="D205" t="s">
+      <c r="E205" t="s">
         <v>1315</v>
       </c>
-      <c r="E205" t="s">
+      <c r="F205">
+        <v>2025</v>
+      </c>
+      <c r="J205" t="s">
         <v>1316</v>
       </c>
-      <c r="F205">
-        <v>2022</v>
-      </c>
-      <c r="J205" t="s">
-        <v>1317</v>
-      </c>
       <c r="AN205" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="206" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C206" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D206" t="s">
         <v>1318</v>
       </c>
       <c r="E206" t="s">
         <v>1319</v>
       </c>
       <c r="F206">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="J206" t="s">
         <v>1320</v>
       </c>
       <c r="AN206" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="207" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C207" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D207" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E207" t="s">
         <v>1321</v>
-      </c>
-      <c r="D207" t="s">
-        <v>1322</v>
-      </c>
-      <c r="E207" t="s">
-        <v>1323</v>
       </c>
       <c r="F207">
         <v>2024</v>
       </c>
       <c r="J207" t="s">
+        <v>1323</v>
+      </c>
+      <c r="AN207" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="208" spans="3:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C208" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D208" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E208" t="s">
         <v>1324</v>
       </c>
-      <c r="AN207" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="208" spans="3:40" x14ac:dyDescent="0.2">
-      <c r="C208" t="s">
-        <v>1326</v>
-      </c>
-      <c r="D208" t="s">
-        <v>1053</v>
-      </c>
-      <c r="E208" t="s">
-        <v>1325</v>
-      </c>
       <c r="F208">
-        <v>2024</v>
-      </c>
-      <c r="J208" t="s">
+        <v>2020</v>
+      </c>
+      <c r="J208" s="3" t="s">
         <v>1327</v>
       </c>
       <c r="AN208" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="209" spans="3:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C209" t="s">
+    <row r="209" spans="3:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C209" s="3" t="s">
         <v>1329</v>
       </c>
       <c r="D209" t="s">
-        <v>1330</v>
+        <v>823</v>
       </c>
       <c r="E209" t="s">
         <v>1328</v>
       </c>
       <c r="F209">
-        <v>2020</v>
-      </c>
-      <c r="J209" s="3" t="s">
-        <v>1331</v>
+        <v>2015</v>
+      </c>
+      <c r="J209" t="s">
+        <v>1330</v>
       </c>
       <c r="AN209" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="210" spans="3:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C210" s="3" t="s">
-        <v>1333</v>
-      </c>
-      <c r="D210" t="s">
-        <v>823</v>
-      </c>
-      <c r="E210" t="s">
-        <v>1332</v>
-      </c>
-      <c r="F210">
-        <v>2015</v>
-      </c>
-      <c r="J210" t="s">
-        <v>1334</v>
-      </c>
-      <c r="AN210" t="s">
         <v>953</v>
       </c>
     </row>

--- a/5_Snowballing/Merged_Studies_3.xlsx
+++ b/5_Snowballing/Merged_Studies_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniotrovato/Documents/GitHub/RegressionTestingOptimizationSLR/5_Snowballing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFFA1FE-D308-B548-B5B9-E7367C3B06CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B6C91F-88ED-7740-B534-FF6C9A317434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="3000" windowWidth="39000" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1793" uniqueCount="1331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="1318">
   <si>
     <t>ID</t>
   </si>
@@ -172,9 +172,6 @@
     <t>DOBSLAW2023111802</t>
   </si>
   <si>
-    <t>JUNG2019110419</t>
-  </si>
-  <si>
     <t>ZHANG2022111419</t>
   </si>
   <si>
@@ -502,9 +499,6 @@
     <t>Felix Dobslaw and Ruiyuan Wan and Yuechan Hao</t>
   </si>
   <si>
-    <t>Pilsu Jung and Sungwon Kang and Jihyun Lee</t>
-  </si>
-  <si>
     <t>Quanjun Zhang and Chunrong Fang and Weisong Sun and Shengcheng Yu and Yutao Xu and Yulei Liu</t>
   </si>
   <si>
@@ -1114,9 +1108,6 @@
     <t>Generic and industrial scale many-criteria regression test selection</t>
   </si>
   <si>
-    <t>Automated code-based test selection for software product line regression testing</t>
-  </si>
-  <si>
     <t>Test case prioritization using partial attention</t>
   </si>
   <si>
@@ -1405,9 +1396,6 @@
     <t>111802</t>
   </si>
   <si>
-    <t>110419</t>
-  </si>
-  <si>
     <t>111419</t>
   </si>
   <si>
@@ -1735,9 +1723,6 @@
     <t>While several test case selection algorithms (heuristic and optimal) and formulations (linear and non-linear) have been proposed, no multi-criteria framework enables Pareto search — the state-of-the-art approach of doing multi-criteria optimization. Therefore, we introduce the highly parallelizable, openly available Many-Criteria Test-Optimization Algorithm (MC-TOA) framework that combines heuristic Pareto search and optimality gap knowledge per criterion. MC-TOA is largely agnostic to the criteria formulations and can incorporate many criteria where existing approaches offer limited scope (single or few objectives/constraints), lack flexibility in the expression and assurance of constraints, or run into problem complexity issues. For two large-scale systems with up to six criteria and thousands of system test cases, MC-TOA not only produces, over the board, superior Pareto fronts in terms of HVI score compared to the state-of-the-art many-objective heuristic baseline, it also does that within minutes of runtime for worst-case executions, i.e., assuming that a regression affects the entire test-suite. MC-TOA depends on convex solvers. We find that the evaluated open-source solvers are slower but suffice for smaller systems, while being less robust for larger systems. Linear formulations execute faster and obtain near-optimal results, which led to faster and better overall convergence of MC-TOA compared to integer formulations. Editor’s note: Open Science material was validated by the Journal of Systems and Software Open Science Board.</t>
   </si>
   <si>
-    <t>Regression testing for software product lines (SPLs) is challenging and can be expensive because it must ensure that all the products of a product family are correct whenever changes are made. SPL regression testing can be made efficient through a test case selection method that selects only the test cases relevant to the changes. Some approaches for SPL test case selection have been proposed but either they were not efficient by requiring intervention from human experts or they cannot be used if requirements specifications, architecture and/or traceabilities for test cases are not available or partially eroded. To address these limitations, we propose an automated method of source code-based regression test selection for SPLs. Our method reduces the repetition of the selection procedure and minimizes the in-depth analysis effort for source code and test cases based on the commonality and variability of a product family. Evaluation results of our method using six product lines show that our method reduces the overall time to perform regression testing by 14.8% ∼ 49.1% on average compared to an approach of repetitively applying Ekstazi, which is the state-of-the-art regression test selection method for a single product, to each product of a product family.</t>
-  </si>
-  <si>
     <t>Test case prioritization (TCP) aims to reorder the regression test suite with a goal of increasing the fault detection rate. Various TCP techniques have been proposed based on different prioritization strategies. Among them, the greedy-based techniques are the most widely-used TCP techniques. However, existing greedy-based techniques usually reorder all candidate test cases in prioritization iterations, resulting in both efficiency and effectiveness problems. In this paper, we propose a generic partial attention mechanism, which adopts the previous priority values (i.e., the number of additionally-covered code units) to avoid considering all candidate test cases. Incorporating the mechanism with the additional-greedy strategy, we implement a novel coverage-based TCP technique based on partition ordering (OCP). OCP first groups the candidate test cases into different partitions and updates the partitions on the descending order. We conduct a comprehensive experiment on 19 versions of Java programs and 30 versions of C programs to compare the effectiveness and efficiency of OCP with six state-of-the-art TCP techniques: total-greedy, additional-greedy, lexicographical-greedy, unify-greedy, art-based, and search-based. The experimental results show that OCP achieves a better fault detection rate than the state-of-the-arts. Moreover, the time costs of OCP are found to achieve 85%–99% improvement than most state-of-the-arts.</t>
   </si>
   <si>
@@ -2065,9 +2050,6 @@
     <t>Software testing, Regression testing, Test case selection, Industrial-scale optimization</t>
   </si>
   <si>
-    <t>Product lines testing, Regression test selection, Software maintenance, Software evolution</t>
-  </si>
-  <si>
     <t>Software testing, Regression testing, Test case prioritization, Greedy algorithm</t>
   </si>
   <si>
@@ -2380,9 +2362,6 @@
     <t>https://doi.org/10.1016/j.jss.2023.111802</t>
   </si>
   <si>
-    <t>https://doi.org/10.1016/j.jss.2019.110419</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1016/j.jss.2022.111419</t>
   </si>
   <si>
@@ -2536,9 +2515,6 @@
     <t>https://www.sciencedirect.com/science/article/pii/S0164121223001978</t>
   </si>
   <si>
-    <t>https://www.sciencedirect.com/science/article/pii/S0164121219301931</t>
-  </si>
-  <si>
     <t>https://www.sciencedirect.com/science/article/pii/S0164121222001285</t>
   </si>
   <si>
@@ -2872,9 +2848,6 @@
     <t>generic and industrial scale many-criteria regression test selection while several test case selection algorithms (heuristic and optimal) and formulations (linear and non-linear) have been proposed, no multi-criteria framework enables pareto search — the state-of-the-art approach of doing multi-criteria optimization. therefore, we introduce the highly parallelizable, openly available many-criteria test-optimization algorithm (mc-toa) framework that combines heuristic pareto search and optimality gap knowledge per criterion. mc-toa is largely agnostic to the criteria formulations and can incorporate many criteria where existing approaches offer limited scope (single or few objectives/constraints), lack flexibility in the expression and assurance of constraints, or run into problem complexity issues. for two large-scale systems with up to six criteria and thousands of system test cases, mc-toa not only produces, over the board, superior pareto fronts in terms of hvi score compared to the state-of-the-art many-objective heuristic baseline, it also does that within minutes of runtime for worst-case executions, i.e., assuming that a regression affects the entire test-suite. mc-toa depends on convex solvers. we find that the evaluated open-source solvers are slower but suffice for smaller systems, while being less robust for larger systems. linear formulations execute faster and obtain near-optimal results, which led to faster and better overall convergence of mc-toa compared to integer formulations. editor’s note: open science material was validated by the journal of systems and software open science board.</t>
   </si>
   <si>
-    <t>automated code-based test selection for software product line regression testing regression testing for software product lines (spls) is challenging and can be expensive because it must ensure that all the products of a product family are correct whenever changes are made. spl regression testing can be made efficient through a test case selection method that selects only the test cases relevant to the changes. some approaches for spl test case selection have been proposed but either they were not efficient by requiring intervention from human experts or they cannot be used if requirements specifications, architecture and/or traceabilities for test cases are not available or partially eroded. to address these limitations, we propose an automated method of source code-based regression test selection for spls. our method reduces the repetition of the selection procedure and minimizes the in-depth analysis effort for source code and test cases based on the commonality and variability of a product family. evaluation results of our method using six product lines show that our method reduces the overall time to perform regression testing by 14.8% ∼ 49.1% on average compared to an approach of repetitively applying ekstazi, which is the state-of-the-art regression test selection method for a single product, to each product of a product family.</t>
-  </si>
-  <si>
     <t>test case prioritization using partial attention test case prioritization (tcp) aims to reorder the regression test suite with a goal of increasing the fault detection rate. various tcp techniques have been proposed based on different prioritization strategies. among them, the greedy-based techniques are the most widely-used tcp techniques. however, existing greedy-based techniques usually reorder all candidate test cases in prioritization iterations, resulting in both efficiency and effectiveness problems. in this paper, we propose a generic partial attention mechanism, which adopts the previous priority values (i.e., the number of additionally-covered code units) to avoid considering all candidate test cases. incorporating the mechanism with the additional-greedy strategy, we implement a novel coverage-based tcp technique based on partition ordering (ocp). ocp first groups the candidate test cases into different partitions and updates the partitions on the descending order. we conduct a comprehensive experiment on 19 versions of java programs and 30 versions of c programs to compare the effectiveness and efficiency of ocp with six state-of-the-art tcp techniques: total-greedy, additional-greedy, lexicographical-greedy, unify-greedy, art-based, and search-based. the experimental results show that ocp achieves a better fault detection rate than the state-of-the-arts. moreover, the time costs of ocp are found to achieve 85%–99% improvement than most state-of-the-arts.</t>
   </si>
   <si>
@@ -2909,18 +2882,6 @@
   </si>
   <si>
     <t>Software quality can be assured by going through software testing process. However, software testing phase is an expensive process as it consumes a longer time. By scheduling test cases execution order through a prioritization approach, software testing efficiency can be improved especially during regression testing. It is a notable step to be taken in constructing important software testing environment so that a system's commercial value can increase. The main idea of this review is to examine and classify the current test case prioritization approaches based on the articulated research questions. Set of search keywords with appropriate repositories were utilized to extract most important studies that fulfill all the criteria defined and classified under journal, conference paper, symposiums and workshops categories. 69 primary studies were nominated from the review strategy. There were 40 journal articles, 21 conference papers, three workshop articles, and five symposium articles collected from the primary studies. As for the result, it can be said that TCP approaches are still broadly open for improvements. Each approach in TCP has specified potential values, advantages, and limitation. Additionally, we found that variations in the starting point of TCP process among the approaches provide a different timeline and benefit to project manager to choose which approaches suite with the project schedule and available resources. Test case prioritization has already been considerably discussed in the software testing domain. However, it is commonly learned that there are quite a number of existing prioritization techniques that can still be improved especially in data used and execution process for each approach.</t>
-  </si>
-  <si>
-    <t>S Mittal, OP Sangwan</t>
-  </si>
-  <si>
-    <t>Journal of Information and Optimization Sciences, 2018</t>
-  </si>
-  <si>
-    <t>Prioritizing test cases for regression techniques using metaheuristic techniques</t>
-  </si>
-  <si>
-    <t>Regression testing attempts to find new errors after some alterations have been done in the software. Previously run test cases are re-executed to check whether historical faults have re-emerged or to validate the functionality of the software. In the past, several methods have been analyzed for reducing the cost of regression testing, which includes regression test selection, regression test minimization and regression test prioritization. Test Suite Prioritization techniques orders the test cases so that all the test cases are executed on a priority basis. Artificial bee colony (ABC) algorithm is a very powerful and efficient algorithm influenced by the intelligent nature of bees. In this paper, we have applied the ABC algorithm for test suite prioritization and the comparison has been made with Genetic Algorithm and Cuscuta Search. From our experimental results, we can infer that results of Cuscuta Search are low as compared to ABC and GA for small test suites.</t>
   </si>
   <si>
     <t>S Wang, J Nam, L Tan</t>
@@ -4451,10 +4412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN209"/>
+  <dimension ref="A1:AN207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="A177" sqref="A177:XFD177"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A113" sqref="A113:XFD113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4586,40 +4547,40 @@
         <v>9068003</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F2">
         <v>2019</v>
       </c>
       <c r="I2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="J2" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="K2" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="L2" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="N2" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="AM2" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="AN2" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.2">
@@ -4627,43 +4588,43 @@
         <v>9022761</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F3">
         <v>2019</v>
       </c>
       <c r="I3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J3" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="K3" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="L3" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="M3" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="N3" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="AM3" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="AN3" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.2">
@@ -4671,40 +4632,40 @@
         <v>7561371</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F4">
         <v>2016</v>
       </c>
       <c r="I4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J4" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="K4" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="L4" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="N4" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="AM4" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="AN4" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.2">
@@ -4712,40 +4673,40 @@
         <v>6884931</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F5">
         <v>2014</v>
       </c>
       <c r="I5" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="J5" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="K5" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="L5" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="N5" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="AM5" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="AN5" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.2">
@@ -4753,40 +4714,40 @@
         <v>10048797</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F6">
         <v>2023</v>
       </c>
       <c r="I6" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="J6" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="K6" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="L6" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="N6" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="AM6" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="AN6" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.2">
@@ -4794,16 +4755,16 @@
         <v>8377903</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F7">
         <v>2018</v>
@@ -4812,28 +4773,28 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="J7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="K7" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="L7" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="M7" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="N7" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="AM7" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="AN7" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.2">
@@ -4841,40 +4802,40 @@
         <v>7045344</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F8">
         <v>2014</v>
       </c>
       <c r="I8" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J8" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="K8" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="L8" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="N8" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="AM8" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="AN8" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.2">
@@ -4882,40 +4843,40 @@
         <v>9198020</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F9">
         <v>2020</v>
       </c>
       <c r="I9" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J9" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="K9" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="L9" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="N9" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="AM9" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="AN9" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.2">
@@ -4923,40 +4884,40 @@
         <v>8776936</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F10">
         <v>2019</v>
       </c>
       <c r="I10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J10" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="K10" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L10" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="N10" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="AM10" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="AN10" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.2">
@@ -4964,43 +4925,43 @@
         <v>10197719</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F11">
         <v>2023</v>
       </c>
       <c r="I11" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="J11" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="K11" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="L11" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="M11" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="N11" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="AM11" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="AN11" t="s">
-        <v>954</v>
+        <v>945</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.2">
@@ -5008,40 +4969,40 @@
         <v>8261011</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F12">
         <v>2017</v>
       </c>
       <c r="I12" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="J12" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="K12" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="L12" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="N12" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="AM12" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="AN12" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.2">
@@ -5049,40 +5010,40 @@
         <v>9160217</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F13">
         <v>2020</v>
       </c>
       <c r="I13" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="J13" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="K13" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="L13" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="N13" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="AM13" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="AN13" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.2">
@@ -5090,40 +5051,40 @@
         <v>8229925</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F14">
         <v>2017</v>
       </c>
       <c r="I14" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="J14" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="K14" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="L14" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="N14" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="AM14" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="AN14" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.2">
@@ -5131,40 +5092,40 @@
         <v>7207103</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E15" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F15">
         <v>2015</v>
       </c>
       <c r="I15" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J15" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="K15" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="L15" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="N15" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="AM15" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="AN15" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.2">
@@ -5172,40 +5133,40 @@
         <v>7515934</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E16" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F16">
         <v>2016</v>
       </c>
       <c r="I16" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="J16" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="K16" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="L16" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="N16" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="AM16" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="AN16" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.2">
@@ -5213,40 +5174,40 @@
         <v>6888744</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E17" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F17">
         <v>2014</v>
       </c>
       <c r="I17" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J17" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="K17" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="L17" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="N17" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="AM17" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="AN17" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.2">
@@ -5254,40 +5215,40 @@
         <v>7019794</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E18" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F18">
         <v>2014</v>
       </c>
       <c r="I18" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="J18" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="K18" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="L18" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="N18" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="AM18" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="AN18" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.2">
@@ -5295,40 +5256,40 @@
         <v>7155012</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D19" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E19" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F19">
         <v>2015</v>
       </c>
       <c r="I19" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="J19" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="K19" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="L19" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="N19" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="AM19" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="AN19" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.2">
@@ -5336,40 +5297,40 @@
         <v>7380585</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E20" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F20">
         <v>2015</v>
       </c>
       <c r="I20" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="J20" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="K20" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="L20" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="N20" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="AM20" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="AN20" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.2">
@@ -5377,40 +5338,40 @@
         <v>6949377</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E21" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F21">
         <v>2014</v>
       </c>
       <c r="I21" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="J21" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="K21" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="L21" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="N21" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="AM21" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="AN21" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.2">
@@ -5418,40 +5379,40 @@
         <v>7975319</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E22" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F22">
         <v>2016</v>
       </c>
       <c r="I22" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J22" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="K22" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="L22" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="N22" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="AM22" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="AN22" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.2">
@@ -5459,40 +5420,40 @@
         <v>7809434</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E23" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F23">
         <v>2016</v>
       </c>
       <c r="I23" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="J23" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="K23" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="L23" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="N23" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="AM23" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="AN23" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.2">
@@ -5500,40 +5461,40 @@
         <v>7475187</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E24" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F24">
         <v>2015</v>
       </c>
       <c r="I24" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="J24" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="K24" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="L24" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="N24" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="AM24" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="AN24" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.2">
@@ -5541,40 +5502,40 @@
         <v>7148505</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E25" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F25">
         <v>2015</v>
       </c>
       <c r="I25" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="J25" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="K25" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="L25" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="N25" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="AM25" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="AN25" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.2">
@@ -5582,40 +5543,40 @@
         <v>6571611</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E26" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F26">
         <v>2013</v>
       </c>
       <c r="I26" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="J26" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="K26" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="L26" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="N26" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="AM26" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="AN26" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.2">
@@ -5623,40 +5584,40 @@
         <v>10301343</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E27" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F27">
         <v>2023</v>
       </c>
       <c r="I27" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="J27" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="K27" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="L27" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="N27" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="AM27" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="AN27" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.2">
@@ -5664,43 +5625,43 @@
         <v>8991616</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E28" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F28">
         <v>2019</v>
       </c>
       <c r="I28" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="J28" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="K28" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="L28" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="M28" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="N28" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="AM28" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="AN28" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.2">
@@ -5708,40 +5669,40 @@
         <v>9440156</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D29" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E29" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F29">
         <v>2021</v>
       </c>
       <c r="I29" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="J29" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="K29" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="L29" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="N29" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="AM29" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="AN29" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.2">
@@ -5749,40 +5710,40 @@
         <v>7557497</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D30" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E30" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F30">
         <v>2016</v>
       </c>
       <c r="I30" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="J30" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="K30" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="L30" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="N30" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="AM30" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="AN30" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.2">
@@ -5790,40 +5751,40 @@
         <v>8281742</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D31" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E31" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F31">
         <v>2017</v>
       </c>
       <c r="I31" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J31" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K31" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="L31" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="N31" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="AM31" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="AN31" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.2">
@@ -5831,40 +5792,40 @@
         <v>8117002</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E32" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F32">
         <v>2017</v>
       </c>
       <c r="I32" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="J32" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="K32" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="L32" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="N32" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="AM32" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="AN32" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.2">
@@ -5872,40 +5833,40 @@
         <v>10499739</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E33" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F33">
         <v>2024</v>
       </c>
       <c r="I33" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="J33" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="K33" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="L33" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="N33" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="AM33" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="AN33" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.2">
@@ -5913,40 +5874,40 @@
         <v>10199547</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D34" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E34" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F34">
         <v>2023</v>
       </c>
       <c r="I34" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="J34" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="K34" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="L34" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="N34" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="AM34" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="AN34" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.2">
@@ -5954,16 +5915,16 @@
         <v>7273631</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D35" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E35" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F35">
         <v>2015</v>
@@ -5972,28 +5933,28 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J35" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="K35" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="L35" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="M35" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="N35" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="AM35" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="AN35" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.2">
@@ -6001,40 +5962,40 @@
         <v>7885851</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D36" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E36" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F36">
         <v>2016</v>
       </c>
       <c r="I36" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J36" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="K36" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="L36" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="N36" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="AM36" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="AN36" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.2">
@@ -6042,40 +6003,40 @@
         <v>10507913</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D37" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E37" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F37">
         <v>2024</v>
       </c>
       <c r="I37" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J37" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="K37" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="L37" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="N37" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="AM37" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="AN37" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.2">
@@ -6083,40 +6044,40 @@
         <v>8305939</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D38" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E38" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F38">
         <v>2017</v>
       </c>
       <c r="I38" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="J38" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="K38" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="L38" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="N38" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="AM38" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="AN38" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.2">
@@ -6124,40 +6085,40 @@
         <v>9440161</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D39" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E39" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F39">
         <v>2021</v>
       </c>
       <c r="I39" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J39" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="K39" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="L39" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="N39" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="AM39" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="AN39" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.2">
@@ -6165,40 +6126,40 @@
         <v>9796413</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D40" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E40" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F40">
         <v>2022</v>
       </c>
       <c r="I40" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="J40" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="K40" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="L40" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="N40" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="AM40" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="AN40" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.2">
@@ -6206,40 +6167,40 @@
         <v>6844270</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E41" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F41">
         <v>2013</v>
       </c>
       <c r="I41" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="J41" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="K41" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="L41" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="N41" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="AM41" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="AN41" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.2">
@@ -6247,40 +6208,40 @@
         <v>7375627</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D42" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E42" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F42">
         <v>2015</v>
       </c>
       <c r="I42" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J42" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="K42" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="L42" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="N42" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="AM42" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="AN42" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="43" spans="1:40" x14ac:dyDescent="0.2">
@@ -6288,37 +6249,37 @@
         <v>8452804</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D43" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E43" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F43">
         <v>2018</v>
       </c>
       <c r="I43" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="J43" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="K43" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="N43" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="AM43" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="AN43" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.2">
@@ -6326,40 +6287,40 @@
         <v>10932075</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D44" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E44" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F44">
         <v>2024</v>
       </c>
       <c r="I44" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J44" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="K44" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="L44" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="N44" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="AM44" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="AN44" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.2">
@@ -6367,16 +6328,16 @@
         <v>7273420</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D45" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E45" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F45">
         <v>2015</v>
@@ -6385,28 +6346,28 @@
         <v>3</v>
       </c>
       <c r="I45" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="J45" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="K45" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="L45" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="M45" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="N45" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="AM45" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="AN45" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="46" spans="1:40" x14ac:dyDescent="0.2">
@@ -6414,43 +6375,43 @@
         <v>10298744</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D46" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E46" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F46">
         <v>2023</v>
       </c>
       <c r="I46" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="J46" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="K46" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="L46" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="M46" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="N46" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="AM46" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="AN46" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="47" spans="1:40" x14ac:dyDescent="0.2">
@@ -6458,43 +6419,43 @@
         <v>9787970</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D47" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E47" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F47">
         <v>2022</v>
       </c>
       <c r="I47" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="J47" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="K47" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="L47" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="M47" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="N47" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="AM47" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="AN47" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.2">
@@ -6502,40 +6463,40 @@
         <v>8855691</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D48" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E48" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F48">
         <v>2019</v>
       </c>
       <c r="I48" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="J48" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="K48" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="L48" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="N48" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="AM48" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="AN48" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="49" spans="1:40" x14ac:dyDescent="0.2">
@@ -6543,16 +6504,16 @@
         <v>8029584</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D49" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E49" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F49">
         <v>2017</v>
@@ -6561,28 +6522,28 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="J49" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="K49" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="L49" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="M49" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="N49" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="AM49" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="AN49" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="50" spans="1:40" x14ac:dyDescent="0.2">
@@ -6590,40 +6551,40 @@
         <v>7838169</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D50" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E50" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F50">
         <v>2016</v>
       </c>
       <c r="I50" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="J50" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="K50" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="L50" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="N50" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="AM50" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="AN50" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="51" spans="1:40" x14ac:dyDescent="0.2">
@@ -6631,43 +6592,43 @@
         <v>6569743</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D51" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E51" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F51">
         <v>2013</v>
       </c>
       <c r="I51" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="J51" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="K51" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="L51" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="M51" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="N51" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="AM51" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="AN51" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="52" spans="1:40" x14ac:dyDescent="0.2">
@@ -6675,40 +6636,40 @@
         <v>7783254</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D52" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E52" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F52">
         <v>2016</v>
       </c>
       <c r="I52" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="J52" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="K52" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="L52" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="N52" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="AM52" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="AN52" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="53" spans="1:40" x14ac:dyDescent="0.2">
@@ -6716,40 +6677,40 @@
         <v>8854718</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D53" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E53" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F53">
         <v>2019</v>
       </c>
       <c r="I53" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="J53" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="K53" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="L53" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="N53" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="AM53" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="AN53" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="54" spans="1:40" x14ac:dyDescent="0.2">
@@ -6757,37 +6718,37 @@
         <v>8536351</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D54" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E54" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F54">
         <v>2018</v>
       </c>
       <c r="I54" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="J54" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="K54" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="N54" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="AM54" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="AN54" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="55" spans="1:40" x14ac:dyDescent="0.2">
@@ -6795,40 +6756,40 @@
         <v>7272924</v>
       </c>
       <c r="B55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D55" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E55" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F55">
         <v>2015</v>
       </c>
       <c r="I55" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="J55" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="K55" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="L55" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="N55" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="AM55" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="AN55" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="56" spans="1:40" x14ac:dyDescent="0.2">
@@ -6836,40 +6797,40 @@
         <v>9741963</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D56" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E56" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F56">
         <v>2021</v>
       </c>
       <c r="I56" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="J56" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="K56" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="L56" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="N56" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="AM56" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="AN56" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="57" spans="1:40" x14ac:dyDescent="0.2">
@@ -6877,43 +6838,43 @@
         <v>10675922</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D57" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E57" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F57">
         <v>2024</v>
       </c>
       <c r="I57" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="J57" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="K57" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="L57" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="M57" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="N57" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="AM57" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="AN57" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="58" spans="1:40" x14ac:dyDescent="0.2">
@@ -6921,43 +6882,43 @@
         <v>10229439</v>
       </c>
       <c r="B58" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D58" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E58" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F58">
         <v>2023</v>
       </c>
       <c r="I58" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="J58" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="K58" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="L58" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="M58" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="N58" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="AM58" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="AN58" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="59" spans="1:40" x14ac:dyDescent="0.2">
@@ -6965,40 +6926,40 @@
         <v>8625203</v>
       </c>
       <c r="B59" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C59" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D59" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E59" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F59">
         <v>2018</v>
       </c>
       <c r="I59" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J59" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="K59" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="L59" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="N59" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="AM59" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="AN59" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="60" spans="1:40" x14ac:dyDescent="0.2">
@@ -7006,43 +6967,43 @@
         <v>6649891</v>
       </c>
       <c r="B60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C60" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D60" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E60" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F60">
         <v>2013</v>
       </c>
       <c r="I60" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J60" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="K60" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="L60" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="M60" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="N60" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="AM60" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="AN60" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="61" spans="1:40" x14ac:dyDescent="0.2">
@@ -7050,40 +7011,40 @@
         <v>10911525</v>
       </c>
       <c r="B61" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C61" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D61" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E61" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F61">
         <v>2024</v>
       </c>
       <c r="I61" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="J61" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="K61" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="L61" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="N61" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="AM61" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="AN61" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="62" spans="1:40" x14ac:dyDescent="0.2">
@@ -7091,43 +7052,43 @@
         <v>10196878</v>
       </c>
       <c r="B62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C62" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D62" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E62" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F62">
         <v>2023</v>
       </c>
       <c r="I62" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="J62" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="K62" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="L62" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="M62" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="N62" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="AM62" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="AN62" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="63" spans="1:40" x14ac:dyDescent="0.2">
@@ -7135,43 +7096,43 @@
         <v>10366665</v>
       </c>
       <c r="B63" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C63" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D63" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E63" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F63">
         <v>2023</v>
       </c>
       <c r="I63" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="J63" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="K63" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="L63" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="M63" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="N63" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="AM63" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="AN63" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="64" spans="1:40" x14ac:dyDescent="0.2">
@@ -7179,40 +7140,40 @@
         <v>7589817</v>
       </c>
       <c r="B64" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C64" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D64" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E64" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F64">
         <v>2016</v>
       </c>
       <c r="I64" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="J64" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="K64" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="L64" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="N64" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="AM64" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="AN64" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="65" spans="1:40" x14ac:dyDescent="0.2">
@@ -7220,40 +7181,40 @@
         <v>7381799</v>
       </c>
       <c r="B65" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C65" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D65" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E65" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F65">
         <v>2015</v>
       </c>
       <c r="I65" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="J65" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="K65" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="L65" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="N65" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="AM65" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="AN65" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="66" spans="1:40" x14ac:dyDescent="0.2">
@@ -7261,40 +7222,40 @@
         <v>9103716</v>
       </c>
       <c r="B66" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C66" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D66" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E66" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F66">
         <v>2020</v>
       </c>
       <c r="I66" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="J66" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="K66" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="L66" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="N66" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="AM66" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="AN66" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="67" spans="1:40" x14ac:dyDescent="0.2">
@@ -7302,40 +7263,40 @@
         <v>10621714</v>
       </c>
       <c r="B67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C67" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D67" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E67" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F67">
         <v>2024</v>
       </c>
       <c r="I67" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="J67" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="K67" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="L67" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="N67" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="AM67" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="AN67" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="68" spans="1:40" x14ac:dyDescent="0.2">
@@ -7343,43 +7304,43 @@
         <v>10216597</v>
       </c>
       <c r="B68" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C68" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D68" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E68" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F68">
         <v>2022</v>
       </c>
       <c r="I68" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="J68" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="K68" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="L68" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="M68" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="N68" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="AM68" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="AN68" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="69" spans="1:40" x14ac:dyDescent="0.2">
@@ -7387,40 +7348,40 @@
         <v>7943143</v>
       </c>
       <c r="B69" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C69" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D69" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E69" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F69">
         <v>2017</v>
       </c>
       <c r="I69" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="J69" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="K69" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="L69" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="N69" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="AM69" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="AN69" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="70" spans="1:40" x14ac:dyDescent="0.2">
@@ -7428,40 +7389,40 @@
         <v>9142966</v>
       </c>
       <c r="B70" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C70" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D70" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E70" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F70">
         <v>2020</v>
       </c>
       <c r="I70" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="J70" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="K70" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="L70" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="N70" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="AM70" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="AN70" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="71" spans="1:40" x14ac:dyDescent="0.2">
@@ -7469,43 +7430,43 @@
         <v>8530033</v>
       </c>
       <c r="B71" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C71" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D71" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E71" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F71">
         <v>2018</v>
       </c>
       <c r="I71" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="J71" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="K71" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="L71" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="M71" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="N71" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="AM71" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="AN71" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="72" spans="1:40" x14ac:dyDescent="0.2">
@@ -7513,43 +7474,43 @@
         <v>10298714</v>
       </c>
       <c r="B72" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C72" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D72" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E72" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F72">
         <v>2023</v>
       </c>
       <c r="I72" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="J72" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="K72" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="L72" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="M72" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="N72" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="AM72" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="AN72" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="73" spans="1:40" x14ac:dyDescent="0.2">
@@ -7557,40 +7518,40 @@
         <v>8300829</v>
       </c>
       <c r="B73" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C73" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D73" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E73" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F73">
         <v>2017</v>
       </c>
       <c r="I73" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="J73" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="K73" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="L73" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="N73" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="AM73" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="AN73" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="74" spans="1:40" x14ac:dyDescent="0.2">
@@ -7598,43 +7559,43 @@
         <v>7819324</v>
       </c>
       <c r="B74" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C74" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D74" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E74" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F74">
         <v>2016</v>
       </c>
       <c r="I74" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="J74" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="K74" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="L74" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="M74" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="N74" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="AM74" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="AN74" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="75" spans="1:40" x14ac:dyDescent="0.2">
@@ -7642,43 +7603,43 @@
         <v>10062444</v>
       </c>
       <c r="B75" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C75" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D75" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E75" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F75">
         <v>2022</v>
       </c>
       <c r="I75" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="J75" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="K75" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="L75" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="M75" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="N75" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="AM75" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
       <c r="AN75" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="76" spans="1:40" x14ac:dyDescent="0.2">
@@ -7686,43 +7647,43 @@
         <v>9825820</v>
       </c>
       <c r="B76" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C76" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D76" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E76" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F76">
         <v>2022</v>
       </c>
       <c r="I76" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="J76" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="K76" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="L76" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="M76" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="N76" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="AM76" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="AN76" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="77" spans="1:40" x14ac:dyDescent="0.2">
@@ -7730,40 +7691,40 @@
         <v>7272927</v>
       </c>
       <c r="B77" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C77" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E77" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F77">
         <v>2015</v>
       </c>
       <c r="I77" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="J77" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="K77" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="L77" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="N77" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="AM77" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="AN77" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="78" spans="1:40" x14ac:dyDescent="0.2">
@@ -7771,40 +7732,40 @@
         <v>8539203</v>
       </c>
       <c r="B78" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C78" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D78" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E78" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F78">
         <v>2018</v>
       </c>
       <c r="I78" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="J78" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="K78" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="L78" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="N78" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="AM78" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="AN78" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="79" spans="1:40" x14ac:dyDescent="0.2">
@@ -7812,40 +7773,40 @@
         <v>6928903</v>
       </c>
       <c r="B79" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C79" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D79" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E79" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F79">
         <v>2014</v>
       </c>
       <c r="I79" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="J79" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="K79" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="L79" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="N79" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="AM79" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="AN79" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="80" spans="1:40" x14ac:dyDescent="0.2">
@@ -7853,40 +7814,40 @@
         <v>6595798</v>
       </c>
       <c r="B80" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C80" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D80" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E80" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F80">
         <v>2013</v>
       </c>
       <c r="I80" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="J80" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="K80" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="L80" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="N80" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="AM80" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="AN80" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="81" spans="1:40" x14ac:dyDescent="0.2">
@@ -7894,16 +7855,16 @@
         <v>7091286</v>
       </c>
       <c r="B81" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C81" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D81" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E81" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F81">
         <v>2014</v>
@@ -7912,28 +7873,28 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="J81" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="K81" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="L81" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="M81" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="N81" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="AM81" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="AN81" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="82" spans="1:40" x14ac:dyDescent="0.2">
@@ -7941,43 +7902,43 @@
         <v>10336260</v>
       </c>
       <c r="B82" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C82" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D82" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E82" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F82">
         <v>2023</v>
       </c>
       <c r="I82" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="J82" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="K82" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="L82" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="M82" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="N82" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="AM82" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="AN82" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="83" spans="1:40" x14ac:dyDescent="0.2">
@@ -7985,40 +7946,40 @@
         <v>10304799</v>
       </c>
       <c r="B83" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C83" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D83" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E83" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F83">
         <v>2023</v>
       </c>
       <c r="I83" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="J83" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="K83" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="L83" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="N83" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="AM83" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="AN83" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="84" spans="1:40" x14ac:dyDescent="0.2">
@@ -8026,40 +7987,40 @@
         <v>10011478</v>
       </c>
       <c r="B84" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C84" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D84" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E84" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F84">
         <v>2022</v>
       </c>
       <c r="I84" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="J84" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="K84" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="L84" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="N84" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="AM84" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="AN84" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="85" spans="1:40" x14ac:dyDescent="0.2">
@@ -8067,40 +8028,40 @@
         <v>9260075</v>
       </c>
       <c r="B85" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C85" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D85" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E85" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F85">
         <v>2020</v>
       </c>
       <c r="I85" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="J85" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="K85" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="L85" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="N85" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="AM85" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="AN85" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="86" spans="1:40" x14ac:dyDescent="0.2">
@@ -8108,43 +8069,43 @@
         <v>8914670</v>
       </c>
       <c r="B86" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C86" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D86" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E86" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F86">
         <v>2019</v>
       </c>
       <c r="I86" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="J86" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="K86" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="L86" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="M86" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="N86" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="AM86" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="AN86" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="87" spans="1:40" x14ac:dyDescent="0.2">
@@ -8152,43 +8113,43 @@
         <v>10877022</v>
       </c>
       <c r="B87" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C87" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D87" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E87" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F87">
         <v>2024</v>
       </c>
       <c r="I87" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="J87" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="K87" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="L87" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="M87" t="s">
+        <v>795</v>
+      </c>
+      <c r="N87" t="s">
         <v>802</v>
       </c>
-      <c r="N87" t="s">
-        <v>809</v>
-      </c>
       <c r="AM87" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="AN87" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="88" spans="1:40" x14ac:dyDescent="0.2">
@@ -8196,40 +8157,40 @@
         <v>7507977</v>
       </c>
       <c r="B88" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C88" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D88" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E88" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F88">
         <v>2016</v>
       </c>
       <c r="I88" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="J88" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="K88" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="L88" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="N88" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="AM88" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
       <c r="AN88" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="89" spans="1:40" x14ac:dyDescent="0.2">
@@ -8237,40 +8198,40 @@
         <v>8305938</v>
       </c>
       <c r="B89" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C89" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D89" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E89" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F89">
         <v>2017</v>
       </c>
       <c r="I89" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="J89" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="K89" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="L89" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="N89" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="AM89" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
       <c r="AN89" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="90" spans="1:40" x14ac:dyDescent="0.2">
@@ -8278,37 +8239,37 @@
         <v>7100474</v>
       </c>
       <c r="B90" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C90" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D90" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E90" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F90">
         <v>2015</v>
       </c>
       <c r="I90" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="J90" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="K90" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="N90" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="AM90" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
       <c r="AN90" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="91" spans="1:40" x14ac:dyDescent="0.2">
@@ -8316,43 +8277,43 @@
         <v>8453107</v>
       </c>
       <c r="B91" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C91" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D91" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E91" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F91">
         <v>2018</v>
       </c>
       <c r="I91" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="J91" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="K91" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="L91" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="M91" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="N91" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="AM91" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="AN91" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="92" spans="1:40" x14ac:dyDescent="0.2">
@@ -8360,43 +8321,43 @@
         <v>9464569</v>
       </c>
       <c r="B92" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C92" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D92" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E92" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F92">
         <v>2021</v>
       </c>
       <c r="I92" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="J92" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="K92" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="L92" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="M92" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="N92" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="AM92" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="AN92" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="93" spans="1:40" x14ac:dyDescent="0.2">
@@ -8404,40 +8365,40 @@
         <v>9616824</v>
       </c>
       <c r="B93" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C93" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D93" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E93" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F93">
         <v>2021</v>
       </c>
       <c r="I93" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J93" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="K93" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="L93" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="N93" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="AM93" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="AN93" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="94" spans="1:40" x14ac:dyDescent="0.2">
@@ -8445,40 +8406,40 @@
         <v>9155903</v>
       </c>
       <c r="B94" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C94" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D94" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E94" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F94">
         <v>2020</v>
       </c>
       <c r="I94" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="J94" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="K94" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="L94" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="N94" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="AM94" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="AN94" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="95" spans="1:40" x14ac:dyDescent="0.2">
@@ -8486,40 +8447,40 @@
         <v>10493937</v>
       </c>
       <c r="B95" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C95" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D95" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E95" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F95">
         <v>2024</v>
       </c>
       <c r="I95" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="J95" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="K95" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="L95" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="N95" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="AM95" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="AN95" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="96" spans="1:40" x14ac:dyDescent="0.2">
@@ -8527,40 +8488,40 @@
         <v>7828927</v>
       </c>
       <c r="B96" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C96" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D96" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E96" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F96">
         <v>2016</v>
       </c>
       <c r="I96" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="J96" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="K96" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="L96" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="N96" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="AM96" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
       <c r="AN96" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="97" spans="1:40" x14ac:dyDescent="0.2">
@@ -8568,40 +8529,40 @@
         <v>10660677</v>
       </c>
       <c r="B97" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C97" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D97" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E97" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F97">
         <v>2024</v>
       </c>
       <c r="I97" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J97" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="K97" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="L97" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="N97" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="AM97" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="AN97" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
     </row>
     <row r="98" spans="1:40" x14ac:dyDescent="0.2">
@@ -8609,16 +8570,16 @@
         <v>8754416</v>
       </c>
       <c r="B98" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C98" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D98" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E98" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F98">
         <v>2019</v>
@@ -8627,28 +8588,28 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="J98" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="K98" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="L98" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="M98" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="N98" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="AM98" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="AN98" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="99" spans="1:40" x14ac:dyDescent="0.2">
@@ -8656,37 +8617,37 @@
         <v>7582788</v>
       </c>
       <c r="B99" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C99" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D99" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E99" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F99">
         <v>2016</v>
       </c>
       <c r="I99" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="J99" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="K99" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="N99" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="AM99" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="AN99" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="100" spans="1:40" x14ac:dyDescent="0.2">
@@ -8694,28 +8655,28 @@
         <v>40</v>
       </c>
       <c r="B100" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C100" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D100" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E100" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F100">
         <v>2017</v>
       </c>
       <c r="I100" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="J100" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="K100" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="L100" t="s">
         <v>40</v>
@@ -8724,28 +8685,28 @@
         <v>9781450344869</v>
       </c>
       <c r="Q100" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="R100" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="S100" s="2" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="T100">
         <v>7</v>
       </c>
       <c r="U100" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="V100" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="AM100" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="AN100" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="101" spans="1:40" x14ac:dyDescent="0.2">
@@ -8753,13 +8714,13 @@
         <v>41</v>
       </c>
       <c r="B101" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C101" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E101" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F101">
         <v>2021</v>
@@ -8768,34 +8729,34 @@
         <v>33</v>
       </c>
       <c r="H101" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="I101" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="J101" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="K101" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="M101" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="O101" t="s">
+        <v>815</v>
+      </c>
+      <c r="S101" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="S101" s="2" t="s">
-        <v>829</v>
-      </c>
       <c r="AM101" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="AN101" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
     </row>
     <row r="102" spans="1:40" x14ac:dyDescent="0.2">
@@ -8803,13 +8764,13 @@
         <v>42</v>
       </c>
       <c r="B102" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C102" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E102" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F102">
         <v>2019</v>
@@ -8818,31 +8779,31 @@
         <v>153</v>
       </c>
       <c r="I102" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="J102" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="K102" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="M102" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="O102" t="s">
+        <v>816</v>
+      </c>
+      <c r="S102" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="S102" s="2" t="s">
-        <v>830</v>
-      </c>
       <c r="AM102" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
       <c r="AN102" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="103" spans="1:40" x14ac:dyDescent="0.2">
@@ -8850,13 +8811,13 @@
         <v>43</v>
       </c>
       <c r="B103" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C103" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E103" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F103">
         <v>2018</v>
@@ -8865,31 +8826,31 @@
         <v>135</v>
       </c>
       <c r="I103" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="J103" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="K103" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="M103" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="O103" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="S103" s="2" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="AM103" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="AN103" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="104" spans="1:40" x14ac:dyDescent="0.2">
@@ -8897,13 +8858,13 @@
         <v>44</v>
       </c>
       <c r="B104" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C104" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E104" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F104">
         <v>2022</v>
@@ -8912,34 +8873,34 @@
         <v>34</v>
       </c>
       <c r="H104" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="I104" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="J104" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="K104" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="M104" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="O104" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="S104" s="2" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="AM104" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="AN104" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="105" spans="1:40" x14ac:dyDescent="0.2">
@@ -8947,13 +8908,13 @@
         <v>45</v>
       </c>
       <c r="B105" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C105" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E105" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F105">
         <v>2020</v>
@@ -8962,31 +8923,31 @@
         <v>163</v>
       </c>
       <c r="I105" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="J105" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="K105" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="M105" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="O105" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="S105" s="2" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="AM105" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="AN105" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="106" spans="1:40" x14ac:dyDescent="0.2">
@@ -8994,13 +8955,13 @@
         <v>46</v>
       </c>
       <c r="B106" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C106" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E106" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F106">
         <v>2025</v>
@@ -9009,31 +8970,31 @@
         <v>160</v>
       </c>
       <c r="I106" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="J106" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="K106" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="M106" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="O106" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="S106" s="2" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="AM106" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="AN106" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="107" spans="1:40" x14ac:dyDescent="0.2">
@@ -9041,13 +9002,13 @@
         <v>47</v>
       </c>
       <c r="B107" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C107" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E107" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F107">
         <v>2020</v>
@@ -9056,31 +9017,31 @@
         <v>169</v>
       </c>
       <c r="I107" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="J107" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="K107" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="M107" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="O107" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="S107" s="2" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="AM107" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="AN107" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="108" spans="1:40" x14ac:dyDescent="0.2">
@@ -9088,13 +9049,13 @@
         <v>48</v>
       </c>
       <c r="B108" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C108" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E108" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F108">
         <v>2022</v>
@@ -9103,34 +9064,34 @@
         <v>299</v>
       </c>
       <c r="H108" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="I108" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="J108" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="K108" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="M108" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="O108" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="S108" s="2" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="AM108" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="AN108" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="109" spans="1:40" x14ac:dyDescent="0.2">
@@ -9138,13 +9099,13 @@
         <v>49</v>
       </c>
       <c r="B109" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C109" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E109" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F109">
         <v>2023</v>
@@ -9153,31 +9114,31 @@
         <v>205</v>
       </c>
       <c r="I109" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="J109" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="K109" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="M109" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="O109" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="S109" s="2" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="AM109" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="AN109" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="110" spans="1:40" x14ac:dyDescent="0.2">
@@ -9185,2050 +9146,1983 @@
         <v>50</v>
       </c>
       <c r="B110" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C110" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E110" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F110">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="G110">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="I110" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="J110" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="K110" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="M110" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="O110" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="S110" s="2" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="AM110" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="AN110" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="111" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>51</v>
-      </c>
-      <c r="B111" t="s">
-        <v>54</v>
-      </c>
       <c r="C111" t="s">
-        <v>161</v>
+        <v>946</v>
+      </c>
+      <c r="D111" t="s">
+        <v>947</v>
       </c>
       <c r="E111" t="s">
-        <v>365</v>
+        <v>948</v>
       </c>
       <c r="F111">
-        <v>2022</v>
-      </c>
-      <c r="G111">
-        <v>192</v>
-      </c>
-      <c r="I111" t="s">
-        <v>462</v>
+        <v>2016</v>
       </c>
       <c r="J111" t="s">
-        <v>572</v>
-      </c>
-      <c r="K111" t="s">
-        <v>682</v>
-      </c>
-      <c r="L111" s="2" t="s">
-        <v>787</v>
-      </c>
-      <c r="M111" t="s">
-        <v>806</v>
-      </c>
-      <c r="O111" t="s">
-        <v>823</v>
-      </c>
-      <c r="S111" s="2" t="s">
-        <v>839</v>
-      </c>
-      <c r="AM111" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="AN111" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="112" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C112" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="D112" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="E112" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="F112">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="J112" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="AN112" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
     </row>
     <row r="113" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C113" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="D113" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="E113" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="F113">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="J113" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="AN113" t="s">
-        <v>954</v>
+        <v>944</v>
       </c>
     </row>
     <row r="114" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C114" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="D114" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="E114" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="F114">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="J114" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="AN114" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
     </row>
     <row r="115" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C115" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="D115" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="E115" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="F115">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="J115" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="AN115" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="116" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C116" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="D116" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="E116" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="F116">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="J116" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="AN116" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
     </row>
     <row r="117" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C117" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D117" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="E117" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="F117">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="J117" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="AN117" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
     </row>
     <row r="118" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C118" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="D118" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="E118" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="F118">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="J118" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="AN118" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
     </row>
     <row r="119" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C119" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="D119" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="E119" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="F119">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="J119" t="s">
-        <v>986</v>
+        <v>558</v>
       </c>
       <c r="AN119" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
     </row>
     <row r="120" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C120" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="D120" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="E120" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="F120">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="J120" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="AN120" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
     </row>
     <row r="121" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C121" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="D121" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="E121" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="F121">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="J121" t="s">
-        <v>562</v>
+        <v>988</v>
       </c>
       <c r="AN121" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
     </row>
     <row r="122" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C122" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="D122" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="E122" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="F122">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="J122" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="AN122" t="s">
-        <v>954</v>
+        <v>944</v>
       </c>
     </row>
     <row r="123" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C123" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="D123" t="s">
-        <v>999</v>
+        <v>967</v>
       </c>
       <c r="E123" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="F123">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="J123" t="s">
-        <v>1001</v>
+        <v>508</v>
       </c>
       <c r="AN123" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="124" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C124" t="s">
-        <v>1002</v>
+        <v>995</v>
       </c>
       <c r="D124" t="s">
-        <v>1003</v>
+        <v>996</v>
       </c>
       <c r="E124" t="s">
-        <v>1004</v>
+        <v>997</v>
       </c>
       <c r="F124">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="J124" t="s">
-        <v>1005</v>
+        <v>998</v>
       </c>
       <c r="AN124" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="125" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C125" t="s">
-        <v>1006</v>
+        <v>999</v>
       </c>
       <c r="D125" t="s">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="E125" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="F125">
         <v>2013</v>
       </c>
       <c r="J125" t="s">
-        <v>512</v>
+        <v>1002</v>
       </c>
       <c r="AN125" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
     </row>
     <row r="126" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C126" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="D126" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="E126" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="F126">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="J126" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="AN126" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="127" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C127" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="D127" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="E127" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="F127">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="J127" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="AN127" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
     </row>
     <row r="128" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C128" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="D128" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="E128" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="F128">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="J128" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="AN128" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="129" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C129" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="D129" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="E129" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="F129">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="J129" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="AN129" t="s">
-        <v>954</v>
+        <v>944</v>
       </c>
     </row>
     <row r="130" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C130" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="D130" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="E130" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="F130">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="J130" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="AN130" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
     </row>
     <row r="131" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C131" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="D131" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="E131" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="F131">
-        <v>2020</v>
+        <v>2013</v>
       </c>
       <c r="J131" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="AN131" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="132" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C132" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="D132" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="E132" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="F132">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="J132" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="AN132" t="s">
-        <v>954</v>
+        <v>944</v>
       </c>
     </row>
     <row r="133" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C133" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="D133" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="E133" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="F133">
         <v>2013</v>
       </c>
       <c r="J133" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="AN133" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="134" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C134" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="D134" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="E134" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="F134">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="J134" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="AN134" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="135" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C135" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="D135" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="E135" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="F135">
-        <v>2013</v>
+        <v>2021</v>
       </c>
       <c r="J135" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="AN135" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="136" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C136" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="D136" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="E136" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="F136">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="J136" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="AN136" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="137" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C137" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="D137" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="E137" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="F137">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="J137" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="AN137" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="138" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C138" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="D138" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="E138" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="F138">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J138" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="AN138" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="139" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C139" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="D139" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="E139" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="F139">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="J139" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="AN139" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="140" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C140" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="D140" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="E140" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="F140">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="J140" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="AN140" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="141" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C141" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="D141" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="E141" t="s">
-        <v>1070</v>
+        <v>357</v>
       </c>
       <c r="F141">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J141" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="AN141" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="142" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C142" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="D142" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="E142" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="F142">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="J142" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="AN142" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="143" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C143" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="D143" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="E143" t="s">
-        <v>359</v>
+        <v>1072</v>
       </c>
       <c r="F143">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="J143" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="AN143" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="144" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C144" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="D144" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="E144" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="F144">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="J144" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="AN144" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="145" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C145" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="D145" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="E145" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="F145">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="J145" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="AN145" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="146" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C146" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="D146" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="E146" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="F146">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="J146" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="AN146" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="147" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C147" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="D147" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="E147" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="F147">
         <v>2017</v>
       </c>
       <c r="J147" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="AN147" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="148" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C148" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="D148" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="E148" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="F148">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="J148" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="AN148" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="149" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C149" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="D149" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="E149" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="F149">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="J149" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="AN149" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="150" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C150" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="D150" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="E150" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="F150">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="J150" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="AN150" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="151" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C151" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="D151" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="E151" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="F151">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="J151" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="AN151" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="152" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C152" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
       <c r="D152" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="E152" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
       <c r="F152">
-        <v>2014</v>
+        <v>2023</v>
       </c>
       <c r="J152" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="AN152" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="153" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C153" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="D153" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
       <c r="E153" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="F153">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="J153" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="AN153" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="154" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C154" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="D154" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="E154" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="F154">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="J154" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
       <c r="AN154" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="155" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C155" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="D155" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="E155" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="F155">
         <v>2014</v>
       </c>
       <c r="J155" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="AN155" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="156" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C156" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="D156" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="E156" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="F156">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="J156" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="AN156" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="157" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C157" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="D157" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="E157" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="F157">
-        <v>2014</v>
+        <v>2024</v>
       </c>
       <c r="J157" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
       <c r="AN157" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="158" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C158" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
       <c r="D158" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="E158" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="F158">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="J158" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="AN158" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="159" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C159" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="D159" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
       <c r="E159" t="s">
-        <v>1141</v>
+        <v>1136</v>
       </c>
       <c r="F159">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="J159" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="AN159" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="160" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C160" t="s">
-        <v>1143</v>
+        <v>1138</v>
       </c>
       <c r="D160" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
       <c r="E160" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
       <c r="F160">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="J160" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="AN160" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="161" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C161" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="D161" t="s">
-        <v>1148</v>
+        <v>1040</v>
       </c>
       <c r="E161" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="F161">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="J161" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="AN161" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="162" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C162" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="D162" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="E162" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="F162">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="J162" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="AN162" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="163" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C163" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="D163" t="s">
-        <v>1053</v>
+        <v>1040</v>
       </c>
       <c r="E163" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
       <c r="F163">
-        <v>2015</v>
+        <v>2022</v>
       </c>
       <c r="J163" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="AN163" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="164" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C164" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
       <c r="D164" t="s">
-        <v>1159</v>
+        <v>1040</v>
       </c>
       <c r="E164" t="s">
-        <v>1160</v>
+        <v>1153</v>
       </c>
       <c r="F164">
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="J164" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
       <c r="AN164" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="165" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C165" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
       <c r="D165" t="s">
-        <v>1053</v>
+        <v>1156</v>
       </c>
       <c r="E165" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="F165">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="J165" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
       <c r="AN165" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="166" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C166" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="D166" t="s">
-        <v>1053</v>
+        <v>1160</v>
       </c>
       <c r="E166" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
       <c r="F166">
-        <v>2022</v>
+        <v>2015</v>
       </c>
       <c r="J166" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="AN166" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="167" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C167" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="D167" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
       <c r="E167" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
       <c r="F167">
-        <v>2024</v>
+        <v>2018</v>
       </c>
       <c r="J167" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
       <c r="AN167" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="168" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C168" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="D168" t="s">
-        <v>1173</v>
+        <v>996</v>
       </c>
       <c r="E168" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="F168">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="J168" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="AN168" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="169" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C169" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="D169" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="E169" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="F169">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="J169" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="AN169" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="170" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C170" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="D170" t="s">
-        <v>1009</v>
+        <v>1175</v>
       </c>
       <c r="E170" t="s">
-        <v>1181</v>
+        <v>1176</v>
       </c>
       <c r="F170">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="J170" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="AN170" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="171" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C171" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
       <c r="D171" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
       <c r="E171" t="s">
-        <v>1185</v>
+        <v>1180</v>
       </c>
       <c r="F171">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="J171" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
       <c r="AN171" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="172" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C172" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
       <c r="D172" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="E172" t="s">
-        <v>1189</v>
+        <v>1184</v>
       </c>
       <c r="F172">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J172" t="s">
-        <v>1190</v>
+        <v>1185</v>
       </c>
       <c r="AN172" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="173" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C173" t="s">
-        <v>1191</v>
+        <v>1186</v>
       </c>
       <c r="D173" t="s">
-        <v>1192</v>
+        <v>1146</v>
       </c>
       <c r="E173" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="F173">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="J173" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="AN173" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="174" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C174" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="D174" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="E174" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="F174">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="J174" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="AN174" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="175" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C175" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D175" t="s">
-        <v>1159</v>
+        <v>816</v>
       </c>
       <c r="E175" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="F175">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="J175" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="AN175" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="176" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C176" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="D176" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="E176" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="F176">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="J176" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="AN176" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="177" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C177" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="D177" t="s">
-        <v>823</v>
+        <v>1201</v>
       </c>
       <c r="E177" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="F177">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="J177" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
       <c r="AN177" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
     </row>
     <row r="178" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C178" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
       <c r="D178" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="E178" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
       <c r="F178">
         <v>2024</v>
       </c>
       <c r="J178" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
       <c r="AN178" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="179" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C179" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
       <c r="D179" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="E179" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="F179">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="J179" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
       <c r="AN179" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
     </row>
     <row r="180" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C180" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
       <c r="D180" t="s">
-        <v>1218</v>
+        <v>1213</v>
       </c>
       <c r="E180" t="s">
-        <v>1219</v>
+        <v>1214</v>
       </c>
       <c r="F180">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="J180" t="s">
-        <v>1220</v>
+        <v>1215</v>
       </c>
       <c r="AN180" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="181" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C181" t="s">
-        <v>1221</v>
+        <v>1216</v>
       </c>
       <c r="D181" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
       <c r="E181" t="s">
-        <v>1223</v>
+        <v>1218</v>
       </c>
       <c r="F181">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="J181" t="s">
-        <v>1224</v>
+        <v>1219</v>
       </c>
       <c r="AN181" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="182" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C182" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="D182" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
       <c r="E182" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
       <c r="F182">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="J182" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
       <c r="AN182" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="183" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C183" t="s">
-        <v>1229</v>
+        <v>1224</v>
       </c>
       <c r="D183" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="E183" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="F183">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="J183" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="AN183" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
     </row>
     <row r="184" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C184" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
       <c r="D184" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="E184" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="F184">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="J184" t="s">
-        <v>1236</v>
+        <v>1231</v>
       </c>
       <c r="AN184" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
     </row>
     <row r="185" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C185" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="D185" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="E185" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="F185">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="J185" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
       <c r="AN185" t="s">
-        <v>954</v>
+        <v>943</v>
       </c>
     </row>
     <row r="186" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C186" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
       <c r="D186" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="E186" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
       <c r="F186">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="J186" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="AN186" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
     </row>
     <row r="187" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C187" t="s">
-        <v>1245</v>
+        <v>1240</v>
       </c>
       <c r="D187" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="E187" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="F187">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="J187" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="AN187" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
     </row>
     <row r="188" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C188" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="D188" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="E188" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="F188">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="J188" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="AN188" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="189" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C189" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
       <c r="D189" t="s">
-        <v>1254</v>
+        <v>1249</v>
       </c>
       <c r="E189" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
       <c r="F189">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="J189" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
       <c r="AN189" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="190" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C190" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
       <c r="D190" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="E190" t="s">
-        <v>1259</v>
+        <v>1254</v>
       </c>
       <c r="F190">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="J190" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="AN190" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="191" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C191" t="s">
-        <v>1261</v>
+        <v>1256</v>
       </c>
       <c r="D191" t="s">
-        <v>1262</v>
+        <v>1257</v>
       </c>
       <c r="E191" t="s">
-        <v>1263</v>
+        <v>1258</v>
       </c>
       <c r="F191">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="J191" t="s">
-        <v>1264</v>
+        <v>1259</v>
       </c>
       <c r="AN191" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="192" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C192" t="s">
-        <v>1265</v>
+        <v>1260</v>
       </c>
       <c r="D192" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
       <c r="E192" t="s">
-        <v>1267</v>
+        <v>1262</v>
       </c>
       <c r="F192">
         <v>2022</v>
       </c>
       <c r="J192" t="s">
-        <v>1268</v>
+        <v>1263</v>
       </c>
       <c r="AN192" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="193" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C193" t="s">
-        <v>1269</v>
+        <v>1264</v>
       </c>
       <c r="D193" t="s">
-        <v>1270</v>
+        <v>1265</v>
       </c>
       <c r="E193" t="s">
-        <v>1271</v>
+        <v>1266</v>
       </c>
       <c r="F193">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="J193" t="s">
-        <v>1272</v>
+        <v>1267</v>
       </c>
       <c r="AN193" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="194" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C194" t="s">
-        <v>1273</v>
+        <v>1268</v>
       </c>
       <c r="D194" t="s">
-        <v>1274</v>
+        <v>1269</v>
       </c>
       <c r="E194" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="F194">
         <v>2022</v>
       </c>
       <c r="J194" t="s">
-        <v>1276</v>
+        <v>1271</v>
       </c>
       <c r="AN194" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="195" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C195" t="s">
-        <v>1277</v>
+        <v>1272</v>
       </c>
       <c r="D195" t="s">
-        <v>1278</v>
+        <v>1273</v>
       </c>
       <c r="E195" t="s">
-        <v>1279</v>
+        <v>1274</v>
       </c>
       <c r="F195">
         <v>2023</v>
       </c>
       <c r="J195" t="s">
-        <v>1280</v>
+        <v>1275</v>
       </c>
       <c r="AN195" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="196" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C196" t="s">
-        <v>1281</v>
+        <v>1276</v>
       </c>
       <c r="D196" t="s">
-        <v>1282</v>
+        <v>1277</v>
       </c>
       <c r="E196" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="F196">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="J196" t="s">
-        <v>1284</v>
+        <v>1279</v>
       </c>
       <c r="AN196" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="197" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C197" t="s">
-        <v>1285</v>
+        <v>1280</v>
       </c>
       <c r="D197" t="s">
-        <v>1286</v>
+        <v>1281</v>
       </c>
       <c r="E197" t="s">
-        <v>1287</v>
+        <v>1282</v>
       </c>
       <c r="F197">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="J197" t="s">
-        <v>1288</v>
+        <v>1283</v>
       </c>
       <c r="AN197" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="198" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C198" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
       <c r="D198" t="s">
-        <v>1290</v>
+        <v>1285</v>
       </c>
       <c r="E198" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="F198">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="J198" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="AN198" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="199" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C199" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
       <c r="D199" t="s">
-        <v>1294</v>
+        <v>1273</v>
       </c>
       <c r="E199" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
       <c r="F199">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="J199" t="s">
-        <v>1296</v>
+        <v>1290</v>
       </c>
       <c r="AN199" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="200" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C200" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
       <c r="D200" t="s">
-        <v>1298</v>
+        <v>1292</v>
       </c>
       <c r="E200" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="F200">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="J200" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="AN200" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="201" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C201" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
       <c r="D201" t="s">
-        <v>1286</v>
+        <v>1296</v>
       </c>
       <c r="E201" t="s">
-        <v>1302</v>
+        <v>1194</v>
       </c>
       <c r="F201">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="J201" t="s">
-        <v>1303</v>
+        <v>1195</v>
       </c>
       <c r="AN201" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="202" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C202" t="s">
-        <v>1304</v>
+        <v>1297</v>
       </c>
       <c r="D202" t="s">
-        <v>1305</v>
+        <v>1298</v>
       </c>
       <c r="E202" t="s">
-        <v>1306</v>
+        <v>1299</v>
       </c>
       <c r="F202">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="J202" t="s">
-        <v>1307</v>
+        <v>1300</v>
       </c>
       <c r="AN202" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="203" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C203" t="s">
-        <v>1308</v>
-      </c>
-      <c r="D203" t="s">
-        <v>1309</v>
+        <v>1301</v>
       </c>
       <c r="E203" t="s">
-        <v>1207</v>
+        <v>1302</v>
       </c>
       <c r="F203">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="J203" t="s">
-        <v>1208</v>
+        <v>1303</v>
       </c>
       <c r="AN203" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
     </row>
     <row r="204" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C204" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="D204" t="s">
-        <v>1311</v>
+        <v>1305</v>
       </c>
       <c r="E204" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
       <c r="F204">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="J204" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="AN204" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="205" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C205" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D205" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E205" t="s">
+        <v>1308</v>
+      </c>
+      <c r="F205">
+        <v>2024</v>
+      </c>
+      <c r="J205" t="s">
+        <v>1310</v>
+      </c>
+      <c r="AN205" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="206" spans="3:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C206" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D206" t="s">
+        <v>1313</v>
+      </c>
+      <c r="E206" t="s">
+        <v>1311</v>
+      </c>
+      <c r="F206">
+        <v>2020</v>
+      </c>
+      <c r="J206" s="3" t="s">
         <v>1314</v>
       </c>
-      <c r="E205" t="s">
+      <c r="AN206" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="207" spans="3:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C207" s="3" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D207" t="s">
+        <v>816</v>
+      </c>
+      <c r="E207" t="s">
         <v>1315</v>
       </c>
-      <c r="F205">
-        <v>2025</v>
-      </c>
-      <c r="J205" t="s">
-        <v>1316</v>
-      </c>
-      <c r="AN205" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="206" spans="3:40" x14ac:dyDescent="0.2">
-      <c r="C206" t="s">
+      <c r="F207">
+        <v>2015</v>
+      </c>
+      <c r="J207" t="s">
         <v>1317</v>
       </c>
-      <c r="D206" t="s">
-        <v>1318</v>
-      </c>
-      <c r="E206" t="s">
-        <v>1319</v>
-      </c>
-      <c r="F206">
-        <v>2024</v>
-      </c>
-      <c r="J206" t="s">
-        <v>1320</v>
-      </c>
-      <c r="AN206" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="207" spans="3:40" x14ac:dyDescent="0.2">
-      <c r="C207" t="s">
-        <v>1322</v>
-      </c>
-      <c r="D207" t="s">
-        <v>1053</v>
-      </c>
-      <c r="E207" t="s">
-        <v>1321</v>
-      </c>
-      <c r="F207">
-        <v>2024</v>
-      </c>
-      <c r="J207" t="s">
-        <v>1323</v>
-      </c>
       <c r="AN207" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="208" spans="3:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C208" t="s">
-        <v>1325</v>
-      </c>
-      <c r="D208" t="s">
-        <v>1326</v>
-      </c>
-      <c r="E208" t="s">
-        <v>1324</v>
-      </c>
-      <c r="F208">
-        <v>2020</v>
-      </c>
-      <c r="J208" s="3" t="s">
-        <v>1327</v>
-      </c>
-      <c r="AN208" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="209" spans="3:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C209" s="3" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D209" t="s">
-        <v>823</v>
-      </c>
-      <c r="E209" t="s">
-        <v>1328</v>
-      </c>
-      <c r="F209">
-        <v>2015</v>
-      </c>
-      <c r="J209" t="s">
-        <v>1330</v>
-      </c>
-      <c r="AN209" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
   </sheetData>
@@ -11252,10 +11146,8 @@
     <hyperlink ref="S108" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
     <hyperlink ref="L109" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
     <hyperlink ref="S109" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="L110" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="S110" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="L111" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="S111" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="L110" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="S110" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5_Snowballing/Merged_Studies_3.xlsx
+++ b/5_Snowballing/Merged_Studies_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniotrovato/Documents/GitHub/RegressionTestingOptimizationSLR/5_Snowballing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B6C91F-88ED-7740-B534-FF6C9A317434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CC76A7-E7CA-B946-A7A1-7C045F22883B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="1318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="1310">
   <si>
     <t>ID</t>
   </si>
@@ -3115,18 +3115,6 @@
   </si>
   <si>
     <t>Regression testing tasks of test case prioritization, test suite reduction/minimization, and regression test selection are typically centered around criteria that are based on code coverage, test execution costs, and code modifications. Researchers have developed and evaluated new individual criteria; others have combined existing criteria in different ways to form what we--and some others--call hybrid criteria. In this paper, we formalize the notion of combining multiple criteria into a hybrid. Our goal is to create a uniform representation of such combinations so that they can be described unambiguously and shared among researchers. We envision that such sharing will allow researchers to implement, study, extend, and evaluate the hybrids using a common set of techniques and tools. We precisely formulate three hybrid combinations, Rank, Merge, and Choice, and demonstrate their usefulness in two ways. First, we recast, in terms of our formulations, others' previously reported work on hybrid criteria. Second, we use our previous results on test case prioritization to create and evaluate new hybrid criteria. Our findings suggest that hybrid criteria of others can be described using our Merge and Rank formulations, and that the hybrid criteria we developed most often outperformed their constituent individual criteria.</t>
-  </si>
-  <si>
-    <t>N Sethi, S Rani, P Singh</t>
-  </si>
-  <si>
-    <t>International journal of computer applications, 2014</t>
-  </si>
-  <si>
-    <t>Ants optimization for minimal test case selection and prioritization as to reduce the cost of regression testing</t>
-  </si>
-  <si>
-    <t>Software testing is the major process in software development life cycle. Regression testing is very costly and inevitable activity that is to be performed in a restricted environment to ensure the validity of modified software. It is inefficient to rerun every test case from test suite when some kind of modification is done in the software. Test case selection and prioritization techniques select and organize the test cases in a test suite based on some criteria such that the faults are covered quickly with minimum execution time. This task can be done on basis of the Ant Colony Optimization technique (ACO) of Swarm Intelligence as it is not deeply studied yet. The main objective of this thesis is to solve the path problem: Means to find the shortest path and Resolve the time problem: Means to minimize the time of finding shortest path. Because of time and cost constraint, it is not possible to perform extensive regression testing. Techniques such as test case selection and prioritization are used to solve the problem of time and cost constraints. In this paper we are modifying the previous technique to get better results in case of execution time and then the Effectiveness of techniques is checked with the help of APFD metric.</t>
   </si>
   <si>
     <t>PK Mishra, B Pattanaik</t>
@@ -3575,18 +3563,6 @@
   </si>
   <si>
     <t>In recent years, researchers have intensively investigated various topics in test prioritization, which aims to re-order tests to increase the rate of fault detection during regression testing. While the main research focus in test prioritization is on proposing novel prioritization techniques and evaluating on more and larger subject systems, little effort has been put on investigating the threats to validity in existing work on test prioritization. One main threat to validity is that existing work mainly evaluates prioritization techniques based on simple artificial changes on the source code and tests. For example, the changes in the source code usually include only seeded program faults, whereas the test suite is usually not augmented at all. On the contrary, in real-world software development, software systems usually undergo various changes on the source code and test suite augmentation. Therefore, it is not clear whether the conclusions drawn by existing work in test prioritization from the artificial changes are still valid for real-world software evolution. In this paper, we present the first empirical study to investigate this important threat to validity in test prioritization. We reimplemented 24 variant techniques of both the traditional and time-aware test prioritization, and investigated the impacts of software evolution on those techniques based on the version history of 8 real-world Java programs from GitHub. The results show that for both traditional and time-aware test prioritization, test suite augmentation significantly hampers their effectiveness, whereas source code changes alone do not influence their effectiveness much.</t>
-  </si>
-  <si>
-    <t>L Mei, Y Cai, C Jia, B Jiang, WK Chan</t>
-  </si>
-  <si>
-    <t>International Journal of Web Services Research (IJWSR), 2013</t>
-  </si>
-  <si>
-    <t>Test pair selection for test case prioritization in regression testing for WS-BPEL programs</t>
-  </si>
-  <si>
-    <t>Many web services not only communicate through XML-based messages, but also may dynamically modify their behaviors by applying different interpretations on XML messages through updating the associated XML Schemas or XML-based interface specifications. Such artifacts are usually complex, allowing XML-based messages conforming to these specifications structurally complex. Testing should cost-effectively cover all scenarios. Test case prioritization is a dimension of regression testing that assures a program from unintended modifications by reordering the test cases within a test suite. However, many existing test case prioritization techniques for regression testing treat test cases of different complexity generically. In this paper, the authors exploit the insights on the structural similarity of XML-based artifacts between test cases in both static and dynamic dimensions, and propose a family of test case prioritization techniques that selects pairs of test case without replacement in turn. To the best of their knowledge, it is the first test case prioritization proposal that selects test case pairs for prioritization. The authors validate their techniques by a suite of benchmarks. The empirical results show that when incorporating all dimensions, some members of our technique family can be more effective than conventional coverage-based techniques.</t>
   </si>
   <si>
     <t>F Altiero, A Corazza, S Di Martino, A Peron, LLL Starace</t>
@@ -4412,10 +4388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN207"/>
+  <dimension ref="A1:AN205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A113" sqref="A113:XFD113"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="A168" sqref="A168:XFD168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9619,7 +9595,7 @@
         <v>1029</v>
       </c>
       <c r="F132">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="J132" t="s">
         <v>1030</v>
@@ -9639,7 +9615,7 @@
         <v>1033</v>
       </c>
       <c r="F133">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="J133" t="s">
         <v>1034</v>
@@ -9659,7 +9635,7 @@
         <v>1037</v>
       </c>
       <c r="F134">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="J134" t="s">
         <v>1038</v>
@@ -9679,7 +9655,7 @@
         <v>1041</v>
       </c>
       <c r="F135">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="J135" t="s">
         <v>1042</v>
@@ -9699,7 +9675,7 @@
         <v>1045</v>
       </c>
       <c r="F136">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="J136" t="s">
         <v>1046</v>
@@ -9719,7 +9695,7 @@
         <v>1049</v>
       </c>
       <c r="F137">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="J137" t="s">
         <v>1050</v>
@@ -9739,7 +9715,7 @@
         <v>1053</v>
       </c>
       <c r="F138">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="J138" t="s">
         <v>1054</v>
@@ -9759,7 +9735,7 @@
         <v>1057</v>
       </c>
       <c r="F139">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="J139" t="s">
         <v>1058</v>
@@ -9776,13 +9752,13 @@
         <v>1060</v>
       </c>
       <c r="E140" t="s">
+        <v>357</v>
+      </c>
+      <c r="F140">
+        <v>2019</v>
+      </c>
+      <c r="J140" t="s">
         <v>1061</v>
-      </c>
-      <c r="F140">
-        <v>2021</v>
-      </c>
-      <c r="J140" t="s">
-        <v>1062</v>
       </c>
       <c r="AN140" t="s">
         <v>944</v>
@@ -9790,16 +9766,16 @@
     </row>
     <row r="141" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C141" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D141" t="s">
         <v>1063</v>
       </c>
-      <c r="D141" t="s">
+      <c r="E141" t="s">
         <v>1064</v>
       </c>
-      <c r="E141" t="s">
-        <v>357</v>
-      </c>
       <c r="F141">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="J141" t="s">
         <v>1065</v>
@@ -9819,7 +9795,7 @@
         <v>1068</v>
       </c>
       <c r="F142">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="J142" t="s">
         <v>1069</v>
@@ -9839,7 +9815,7 @@
         <v>1072</v>
       </c>
       <c r="F143">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="J143" t="s">
         <v>1073</v>
@@ -9859,7 +9835,7 @@
         <v>1076</v>
       </c>
       <c r="F144">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="J144" t="s">
         <v>1077</v>
@@ -9879,7 +9855,7 @@
         <v>1080</v>
       </c>
       <c r="F145">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="J145" t="s">
         <v>1081</v>
@@ -9899,7 +9875,7 @@
         <v>1084</v>
       </c>
       <c r="F146">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="J146" t="s">
         <v>1085</v>
@@ -9939,7 +9915,7 @@
         <v>1092</v>
       </c>
       <c r="F148">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="J148" t="s">
         <v>1093</v>
@@ -9979,7 +9955,7 @@
         <v>1100</v>
       </c>
       <c r="F150">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="J150" t="s">
         <v>1101</v>
@@ -9999,7 +9975,7 @@
         <v>1104</v>
       </c>
       <c r="F151">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="J151" t="s">
         <v>1105</v>
@@ -10019,7 +9995,7 @@
         <v>1108</v>
       </c>
       <c r="F152">
-        <v>2023</v>
+        <v>2014</v>
       </c>
       <c r="J152" t="s">
         <v>1109</v>
@@ -10039,7 +10015,7 @@
         <v>1112</v>
       </c>
       <c r="F153">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="J153" t="s">
         <v>1113</v>
@@ -10059,7 +10035,7 @@
         <v>1116</v>
       </c>
       <c r="F154">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="J154" t="s">
         <v>1117</v>
@@ -10079,7 +10055,7 @@
         <v>1120</v>
       </c>
       <c r="F155">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="J155" t="s">
         <v>1121</v>
@@ -10099,7 +10075,7 @@
         <v>1124</v>
       </c>
       <c r="F156">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="J156" t="s">
         <v>1125</v>
@@ -10119,7 +10095,7 @@
         <v>1128</v>
       </c>
       <c r="F157">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="J157" t="s">
         <v>1129</v>
@@ -10139,7 +10115,7 @@
         <v>1132</v>
       </c>
       <c r="F158">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="J158" t="s">
         <v>1133</v>
@@ -10159,7 +10135,7 @@
         <v>1136</v>
       </c>
       <c r="F159">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="J159" t="s">
         <v>1137</v>
@@ -10173,16 +10149,16 @@
         <v>1138</v>
       </c>
       <c r="D160" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E160" t="s">
         <v>1139</v>
       </c>
-      <c r="E160" t="s">
+      <c r="F160">
+        <v>2015</v>
+      </c>
+      <c r="J160" t="s">
         <v>1140</v>
-      </c>
-      <c r="F160">
-        <v>2020</v>
-      </c>
-      <c r="J160" t="s">
-        <v>1141</v>
       </c>
       <c r="AN160" t="s">
         <v>944</v>
@@ -10190,16 +10166,16 @@
     </row>
     <row r="161" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C161" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D161" t="s">
         <v>1142</v>
-      </c>
-      <c r="D161" t="s">
-        <v>1040</v>
       </c>
       <c r="E161" t="s">
         <v>1143</v>
       </c>
       <c r="F161">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="J161" t="s">
         <v>1144</v>
@@ -10213,16 +10189,16 @@
         <v>1145</v>
       </c>
       <c r="D162" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E162" t="s">
         <v>1146</v>
       </c>
-      <c r="E162" t="s">
+      <c r="F162">
+        <v>2022</v>
+      </c>
+      <c r="J162" t="s">
         <v>1147</v>
-      </c>
-      <c r="F162">
-        <v>2016</v>
-      </c>
-      <c r="J162" t="s">
-        <v>1148</v>
       </c>
       <c r="AN162" t="s">
         <v>944</v>
@@ -10230,19 +10206,19 @@
     </row>
     <row r="163" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C163" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D163" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E163" t="s">
         <v>1149</v>
-      </c>
-      <c r="D163" t="s">
-        <v>1040</v>
-      </c>
-      <c r="E163" t="s">
-        <v>1150</v>
       </c>
       <c r="F163">
         <v>2022</v>
       </c>
       <c r="J163" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="AN163" t="s">
         <v>944</v>
@@ -10250,16 +10226,16 @@
     </row>
     <row r="164" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C164" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D164" t="s">
         <v>1152</v>
-      </c>
-      <c r="D164" t="s">
-        <v>1040</v>
       </c>
       <c r="E164" t="s">
         <v>1153</v>
       </c>
       <c r="F164">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="J164" t="s">
         <v>1154</v>
@@ -10279,7 +10255,7 @@
         <v>1157</v>
       </c>
       <c r="F165">
-        <v>2024</v>
+        <v>2015</v>
       </c>
       <c r="J165" t="s">
         <v>1158</v>
@@ -10299,7 +10275,7 @@
         <v>1161</v>
       </c>
       <c r="F166">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="J166" t="s">
         <v>1162</v>
@@ -10313,16 +10289,16 @@
         <v>1163</v>
       </c>
       <c r="D167" t="s">
+        <v>996</v>
+      </c>
+      <c r="E167" t="s">
         <v>1164</v>
       </c>
-      <c r="E167" t="s">
+      <c r="F167">
+        <v>2016</v>
+      </c>
+      <c r="J167" t="s">
         <v>1165</v>
-      </c>
-      <c r="F167">
-        <v>2018</v>
-      </c>
-      <c r="J167" t="s">
-        <v>1166</v>
       </c>
       <c r="AN167" t="s">
         <v>944</v>
@@ -10330,16 +10306,16 @@
     </row>
     <row r="168" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C168" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D168" t="s">
         <v>1167</v>
-      </c>
-      <c r="D168" t="s">
-        <v>996</v>
       </c>
       <c r="E168" t="s">
         <v>1168</v>
       </c>
       <c r="F168">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="J168" t="s">
         <v>1169</v>
@@ -10359,7 +10335,7 @@
         <v>1172</v>
       </c>
       <c r="F169">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="J169" t="s">
         <v>1173</v>
@@ -10379,7 +10355,7 @@
         <v>1176</v>
       </c>
       <c r="F170">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J170" t="s">
         <v>1177</v>
@@ -10393,16 +10369,16 @@
         <v>1178</v>
       </c>
       <c r="D171" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E171" t="s">
         <v>1179</v>
       </c>
-      <c r="E171" t="s">
+      <c r="F171">
+        <v>2016</v>
+      </c>
+      <c r="J171" t="s">
         <v>1180</v>
-      </c>
-      <c r="F171">
-        <v>2015</v>
-      </c>
-      <c r="J171" t="s">
-        <v>1181</v>
       </c>
       <c r="AN171" t="s">
         <v>944</v>
@@ -10410,19 +10386,19 @@
     </row>
     <row r="172" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C172" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D172" t="s">
         <v>1182</v>
       </c>
-      <c r="D172" t="s">
+      <c r="E172" t="s">
         <v>1183</v>
       </c>
-      <c r="E172" t="s">
+      <c r="F172">
+        <v>2018</v>
+      </c>
+      <c r="J172" t="s">
         <v>1184</v>
-      </c>
-      <c r="F172">
-        <v>2019</v>
-      </c>
-      <c r="J172" t="s">
-        <v>1185</v>
       </c>
       <c r="AN172" t="s">
         <v>944</v>
@@ -10430,19 +10406,19 @@
     </row>
     <row r="173" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C173" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D173" t="s">
+        <v>816</v>
+      </c>
+      <c r="E173" t="s">
         <v>1186</v>
       </c>
-      <c r="D173" t="s">
-        <v>1146</v>
-      </c>
-      <c r="E173" t="s">
+      <c r="F173">
+        <v>2021</v>
+      </c>
+      <c r="J173" t="s">
         <v>1187</v>
-      </c>
-      <c r="F173">
-        <v>2016</v>
-      </c>
-      <c r="J173" t="s">
-        <v>1188</v>
       </c>
       <c r="AN173" t="s">
         <v>944</v>
@@ -10450,19 +10426,19 @@
     </row>
     <row r="174" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C174" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D174" t="s">
         <v>1189</v>
       </c>
-      <c r="D174" t="s">
+      <c r="E174" t="s">
         <v>1190</v>
       </c>
-      <c r="E174" t="s">
+      <c r="F174">
+        <v>2024</v>
+      </c>
+      <c r="J174" t="s">
         <v>1191</v>
-      </c>
-      <c r="F174">
-        <v>2018</v>
-      </c>
-      <c r="J174" t="s">
-        <v>1192</v>
       </c>
       <c r="AN174" t="s">
         <v>944</v>
@@ -10470,22 +10446,22 @@
     </row>
     <row r="175" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C175" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D175" t="s">
         <v>1193</v>
-      </c>
-      <c r="D175" t="s">
-        <v>816</v>
       </c>
       <c r="E175" t="s">
         <v>1194</v>
       </c>
       <c r="F175">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="J175" t="s">
         <v>1195</v>
       </c>
       <c r="AN175" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="176" spans="3:40" x14ac:dyDescent="0.2">
@@ -10519,13 +10495,13 @@
         <v>1202</v>
       </c>
       <c r="F177">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="J177" t="s">
         <v>1203</v>
       </c>
       <c r="AN177" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="178" spans="3:40" x14ac:dyDescent="0.2">
@@ -10539,7 +10515,7 @@
         <v>1206</v>
       </c>
       <c r="F178">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="J178" t="s">
         <v>1207</v>
@@ -10559,7 +10535,7 @@
         <v>1210</v>
       </c>
       <c r="F179">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="J179" t="s">
         <v>1211</v>
@@ -10579,7 +10555,7 @@
         <v>1214</v>
       </c>
       <c r="F180">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="J180" t="s">
         <v>1215</v>
@@ -10599,13 +10575,13 @@
         <v>1218</v>
       </c>
       <c r="F181">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="J181" t="s">
         <v>1219</v>
       </c>
       <c r="AN181" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="182" spans="3:40" x14ac:dyDescent="0.2">
@@ -10619,13 +10595,13 @@
         <v>1222</v>
       </c>
       <c r="F182">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="J182" t="s">
         <v>1223</v>
       </c>
       <c r="AN182" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="183" spans="3:40" x14ac:dyDescent="0.2">
@@ -10639,13 +10615,13 @@
         <v>1226</v>
       </c>
       <c r="F183">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="J183" t="s">
         <v>1227</v>
       </c>
       <c r="AN183" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="184" spans="3:40" x14ac:dyDescent="0.2">
@@ -10659,13 +10635,13 @@
         <v>1230</v>
       </c>
       <c r="F184">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="J184" t="s">
         <v>1231</v>
       </c>
       <c r="AN184" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="185" spans="3:40" x14ac:dyDescent="0.2">
@@ -10679,13 +10655,13 @@
         <v>1234</v>
       </c>
       <c r="F185">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="J185" t="s">
         <v>1235</v>
       </c>
       <c r="AN185" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="186" spans="3:40" x14ac:dyDescent="0.2">
@@ -10699,7 +10675,7 @@
         <v>1238</v>
       </c>
       <c r="F186">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="J186" t="s">
         <v>1239</v>
@@ -10719,7 +10695,7 @@
         <v>1242</v>
       </c>
       <c r="F187">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="J187" t="s">
         <v>1243</v>
@@ -10739,7 +10715,7 @@
         <v>1246</v>
       </c>
       <c r="F188">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="J188" t="s">
         <v>1247</v>
@@ -10759,7 +10735,7 @@
         <v>1250</v>
       </c>
       <c r="F189">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="J189" t="s">
         <v>1251</v>
@@ -10799,7 +10775,7 @@
         <v>1258</v>
       </c>
       <c r="F191">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="J191" t="s">
         <v>1259</v>
@@ -10859,7 +10835,7 @@
         <v>1270</v>
       </c>
       <c r="F194">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="J194" t="s">
         <v>1271</v>
@@ -10879,7 +10855,7 @@
         <v>1274</v>
       </c>
       <c r="F195">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="J195" t="s">
         <v>1275</v>
@@ -10899,7 +10875,7 @@
         <v>1278</v>
       </c>
       <c r="F196">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="J196" t="s">
         <v>1279</v>
@@ -10913,16 +10889,16 @@
         <v>1280</v>
       </c>
       <c r="D197" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E197" t="s">
         <v>1281</v>
       </c>
-      <c r="E197" t="s">
+      <c r="F197">
+        <v>2023</v>
+      </c>
+      <c r="J197" t="s">
         <v>1282</v>
-      </c>
-      <c r="F197">
-        <v>2021</v>
-      </c>
-      <c r="J197" t="s">
-        <v>1283</v>
       </c>
       <c r="AN197" t="s">
         <v>944</v>
@@ -10930,19 +10906,19 @@
     </row>
     <row r="198" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C198" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D198" t="s">
         <v>1284</v>
       </c>
-      <c r="D198" t="s">
+      <c r="E198" t="s">
         <v>1285</v>
       </c>
-      <c r="E198" t="s">
+      <c r="F198">
+        <v>2021</v>
+      </c>
+      <c r="J198" t="s">
         <v>1286</v>
-      </c>
-      <c r="F198">
-        <v>2019</v>
-      </c>
-      <c r="J198" t="s">
-        <v>1287</v>
       </c>
       <c r="AN198" t="s">
         <v>944</v>
@@ -10950,19 +10926,19 @@
     </row>
     <row r="199" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C199" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D199" t="s">
         <v>1288</v>
       </c>
-      <c r="D199" t="s">
-        <v>1273</v>
-      </c>
       <c r="E199" t="s">
-        <v>1289</v>
+        <v>1186</v>
       </c>
       <c r="F199">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="J199" t="s">
-        <v>1290</v>
+        <v>1187</v>
       </c>
       <c r="AN199" t="s">
         <v>944</v>
@@ -10970,19 +10946,19 @@
     </row>
     <row r="200" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C200" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D200" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E200" t="s">
         <v>1291</v>
       </c>
-      <c r="D200" t="s">
+      <c r="F200">
+        <v>2022</v>
+      </c>
+      <c r="J200" t="s">
         <v>1292</v>
-      </c>
-      <c r="E200" t="s">
-        <v>1293</v>
-      </c>
-      <c r="F200">
-        <v>2021</v>
-      </c>
-      <c r="J200" t="s">
-        <v>1294</v>
       </c>
       <c r="AN200" t="s">
         <v>944</v>
@@ -10990,39 +10966,36 @@
     </row>
     <row r="201" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C201" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E201" t="s">
+        <v>1294</v>
+      </c>
+      <c r="F201">
+        <v>2025</v>
+      </c>
+      <c r="J201" t="s">
         <v>1295</v>
       </c>
-      <c r="D201" t="s">
-        <v>1296</v>
-      </c>
-      <c r="E201" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F201">
-        <v>2021</v>
-      </c>
-      <c r="J201" t="s">
-        <v>1195</v>
-      </c>
       <c r="AN201" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="202" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C202" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D202" t="s">
         <v>1297</v>
       </c>
-      <c r="D202" t="s">
+      <c r="E202" t="s">
         <v>1298</v>
       </c>
-      <c r="E202" t="s">
+      <c r="F202">
+        <v>2024</v>
+      </c>
+      <c r="J202" t="s">
         <v>1299</v>
-      </c>
-      <c r="F202">
-        <v>2022</v>
-      </c>
-      <c r="J202" t="s">
-        <v>1300</v>
       </c>
       <c r="AN202" t="s">
         <v>944</v>
@@ -11032,20 +11005,23 @@
       <c r="C203" t="s">
         <v>1301</v>
       </c>
+      <c r="D203" t="s">
+        <v>1036</v>
+      </c>
       <c r="E203" t="s">
+        <v>1300</v>
+      </c>
+      <c r="F203">
+        <v>2024</v>
+      </c>
+      <c r="J203" t="s">
         <v>1302</v>
       </c>
-      <c r="F203">
-        <v>2025</v>
-      </c>
-      <c r="J203" t="s">
-        <v>1303</v>
-      </c>
       <c r="AN203" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="204" spans="3:40" x14ac:dyDescent="0.2">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="204" spans="3:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C204" t="s">
         <v>1304</v>
       </c>
@@ -11053,75 +11029,35 @@
         <v>1305</v>
       </c>
       <c r="E204" t="s">
+        <v>1303</v>
+      </c>
+      <c r="F204">
+        <v>2020</v>
+      </c>
+      <c r="J204" s="3" t="s">
         <v>1306</v>
       </c>
-      <c r="F204">
-        <v>2024</v>
-      </c>
-      <c r="J204" t="s">
+      <c r="AN204" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="205" spans="3:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C205" s="3" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D205" t="s">
+        <v>816</v>
+      </c>
+      <c r="E205" t="s">
         <v>1307</v>
       </c>
-      <c r="AN204" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="205" spans="3:40" x14ac:dyDescent="0.2">
-      <c r="C205" t="s">
+      <c r="F205">
+        <v>2015</v>
+      </c>
+      <c r="J205" t="s">
         <v>1309</v>
       </c>
-      <c r="D205" t="s">
-        <v>1040</v>
-      </c>
-      <c r="E205" t="s">
-        <v>1308</v>
-      </c>
-      <c r="F205">
-        <v>2024</v>
-      </c>
-      <c r="J205" t="s">
-        <v>1310</v>
-      </c>
       <c r="AN205" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="206" spans="3:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C206" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D206" t="s">
-        <v>1313</v>
-      </c>
-      <c r="E206" t="s">
-        <v>1311</v>
-      </c>
-      <c r="F206">
-        <v>2020</v>
-      </c>
-      <c r="J206" s="3" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AN206" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="207" spans="3:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C207" s="3" t="s">
-        <v>1316</v>
-      </c>
-      <c r="D207" t="s">
-        <v>816</v>
-      </c>
-      <c r="E207" t="s">
-        <v>1315</v>
-      </c>
-      <c r="F207">
-        <v>2015</v>
-      </c>
-      <c r="J207" t="s">
-        <v>1317</v>
-      </c>
-      <c r="AN207" t="s">
         <v>944</v>
       </c>
     </row>

--- a/5_Snowballing/Merged_Studies_3.xlsx
+++ b/5_Snowballing/Merged_Studies_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniotrovato/Documents/GitHub/RegressionTestingOptimizationSLR/5_Snowballing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CC76A7-E7CA-B946-A7A1-7C045F22883B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CF7CE1-7C75-B54E-B3B2-7647D618A2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="10000" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="1310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="1304">
   <si>
     <t>ID</t>
   </si>
@@ -3884,18 +3884,6 @@
     <t>In automotive software engineering, system-level regression testing is crucial to ensure proper integration of often- times safety-critical components. Due to the inherent complexity of such systems and components, testing is commonly performed manually and in a black-box manner, which is particularly costly and leads to slow feedback cycles between testers and developers. Regression Test Prioritization (RTP) aims to reduce feedback time by ordering tests to reveal faults earlier during the testing process. However, most prior RTP research does not incorporate varying fault severity, which must be taken into account when evaluating and designing appropriate RTP approaches for safety-critical automotive software systems. In this work, we present a case study at our industry partner MAN, a leading international provider of commercial vehicles. We design and instantiate a domain-specific, severity-aware RTP assessment model and comparatively assess state-of-the-art RTP approaches. Our results indicate that simple and partly well- known heuristics based on test history and test costs have the best cost-effectiveness, achieving between 85% and 90% of the maximum possible feedback time reduction. On the other hand, search-based and machine-learning-based RTP approaches do not perform better, especially if available test history is sparse.</t>
   </si>
   <si>
-    <t>F Li, J Zhou, Y Li, D Hao, L Zhang</t>
-  </si>
-  <si>
-    <t>IEEE Transactions on Software Engineering, 2021</t>
-  </si>
-  <si>
-    <t>Aga: An accelerated greedy additional algorithm for test case prioritization</t>
-  </si>
-  <si>
-    <t>In recent years, many test case prioritization (TCP) techniques have been proposed to speed up the process of fault detection. However, little work has taken the efficiency problem of these techniques into account. In this paper, we target the Greedy Additional (GA) algorithm, which has been widely recognized to be effective but less efficient, and try to improve its efficiency while preserving effectiveness. In our Accelerated GA (AGA) algorithm, we use some extra data structures to reduce redundant data accesses in the GA algorithm and thus the time complexity is reduced from  to  when , where  is the number of test cases,  is the number of program elements, and is the iteration number. Moreover, we observe the impact of iteration numbers on prioritization efficiency on our dataset and propose to use a specific iteration number in the AGA algorithm to further improve the efficiency. We conducted experiments on 55 open-source subjects. In particular, we implemented each TCP algorithm with two kinds of widely-used input formats, adjacency matrix and adjacency list. Since a TCP algorithm with adjacency matrix is less efficient than the algorithm with adjacency list, the result analysis is mainly conducted based on TCP algorithms with adjacency list. The results show that AGA achieves 5.95X speedup ratio over GA on average, while it achieves the same average effectiveness as GA in terms of Average Percentage of Fault Detected (APFD). Moreover, we conducted an industrial case study on 22 subjects, collected from Baidu, and find that the average speedup ratio of AGA over GA is 44.27X, which indicates the practical usage of AGA in real-world scenarios.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nauman bin Ali, Emelie Engström, Masoumeh Taromirad, Mohammad Reza Mousavi, Nasir Mehmood Minhas, Daniel Helgesson, Sebastian Kunze &amp; Mahsa Varshosaz </t>
   </si>
   <si>
@@ -3927,12 +3915,6 @@
   </si>
   <si>
     <t>Regression testing is a maintenance level activity performed on a modified program to instill confidence in the software’s reliability. Prioritization of test case arranges the regression test suite to detect the faults earlier in the testing process. The test cases necessary for validating the recent changes and finding the maximum faults in minimum time are selected. In this manuscript, an optimization algorithm (Bee Algorithm) based on the intelligent foraging behavior of honey bee swarm has been proposed that can enhance the rate of fault detection in test case prioritization. The bee algorithm, along with the fuzzy rule base, reduces the test cases’ volume by selecting the test cases from the pre-existing test suite. The proposed algorithm developed for enhancing the fault detection rate in minimum time is inspired by the behavior of two types of worker bees, namely scout bees and forager bees. These worker bees are responsible for the maintenance, progress, and growth of the colony. The proposed approach is implemented on two projects. The prioritization result is quantified by using the average percentage of fault detection (APFD) metric. Compared with other existing prioritization techniques like no prioritization, reverse prioritization, random prioritization, and previous work, the proposed algorithm outperforms all in fault detection rate. The effectiveness of the proposed algorithm is represented by using the APFD graphs and charts.</t>
-  </si>
-  <si>
-    <t>S Mondal, R Nasre</t>
-  </si>
-  <si>
-    <t>Journal of Systems and Software, 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Soumen Nayak, Chiranjeev Kumar &amp; Sachin Tripathi </t>
@@ -4388,10 +4370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN205"/>
+  <dimension ref="A1:AN203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="A168" sqref="A168:XFD168"/>
+    <sheetView tabSelected="1" topLeftCell="AJ169" workbookViewId="0">
+      <selection activeCell="AN125" sqref="AN125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5306,7 +5288,7 @@
         <v>852</v>
       </c>
       <c r="AN20" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.2">
@@ -10381,7 +10363,7 @@
         <v>1180</v>
       </c>
       <c r="AN171" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="172" spans="3:40" x14ac:dyDescent="0.2">
@@ -10855,13 +10837,13 @@
         <v>1274</v>
       </c>
       <c r="F195">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="J195" t="s">
         <v>1275</v>
       </c>
       <c r="AN195" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="196" spans="3:40" x14ac:dyDescent="0.2">
@@ -10869,16 +10851,16 @@
         <v>1276</v>
       </c>
       <c r="D196" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E196" t="s">
         <v>1277</v>
       </c>
-      <c r="E196" t="s">
+      <c r="F196">
+        <v>2023</v>
+      </c>
+      <c r="J196" t="s">
         <v>1278</v>
-      </c>
-      <c r="F196">
-        <v>2019</v>
-      </c>
-      <c r="J196" t="s">
-        <v>1279</v>
       </c>
       <c r="AN196" t="s">
         <v>944</v>
@@ -10886,16 +10868,16 @@
     </row>
     <row r="197" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C197" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D197" t="s">
         <v>1280</v>
-      </c>
-      <c r="D197" t="s">
-        <v>1265</v>
       </c>
       <c r="E197" t="s">
         <v>1281</v>
       </c>
       <c r="F197">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="J197" t="s">
         <v>1282</v>
@@ -10915,7 +10897,7 @@
         <v>1285</v>
       </c>
       <c r="F198">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="J198" t="s">
         <v>1286</v>
@@ -10928,37 +10910,34 @@
       <c r="C199" t="s">
         <v>1287</v>
       </c>
-      <c r="D199" t="s">
+      <c r="E199" t="s">
         <v>1288</v>
       </c>
-      <c r="E199" t="s">
-        <v>1186</v>
-      </c>
       <c r="F199">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="J199" t="s">
-        <v>1187</v>
+        <v>1289</v>
       </c>
       <c r="AN199" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="200" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C200" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="D200" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="E200" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="F200">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="J200" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="AN200" t="s">
         <v>944</v>
@@ -10966,98 +10945,61 @@
     </row>
     <row r="201" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C201" t="s">
-        <v>1293</v>
+        <v>1295</v>
+      </c>
+      <c r="D201" t="s">
+        <v>1036</v>
       </c>
       <c r="E201" t="s">
         <v>1294</v>
       </c>
       <c r="F201">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="J201" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="AN201" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="202" spans="3:40" x14ac:dyDescent="0.2">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="202" spans="3:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C202" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="D202" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E202" t="s">
         <v>1297</v>
       </c>
-      <c r="E202" t="s">
-        <v>1298</v>
-      </c>
       <c r="F202">
-        <v>2024</v>
-      </c>
-      <c r="J202" t="s">
-        <v>1299</v>
+        <v>2020</v>
+      </c>
+      <c r="J202" s="3" t="s">
+        <v>1300</v>
       </c>
       <c r="AN202" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="203" spans="3:40" x14ac:dyDescent="0.2">
-      <c r="C203" t="s">
+    <row r="203" spans="3:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C203" s="3" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D203" t="s">
+        <v>816</v>
+      </c>
+      <c r="E203" t="s">
         <v>1301</v>
       </c>
-      <c r="D203" t="s">
-        <v>1036</v>
-      </c>
-      <c r="E203" t="s">
-        <v>1300</v>
-      </c>
       <c r="F203">
-        <v>2024</v>
+        <v>2015</v>
       </c>
       <c r="J203" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="AN203" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="204" spans="3:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C204" t="s">
-        <v>1304</v>
-      </c>
-      <c r="D204" t="s">
-        <v>1305</v>
-      </c>
-      <c r="E204" t="s">
-        <v>1303</v>
-      </c>
-      <c r="F204">
-        <v>2020</v>
-      </c>
-      <c r="J204" s="3" t="s">
-        <v>1306</v>
-      </c>
-      <c r="AN204" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="205" spans="3:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C205" s="3" t="s">
-        <v>1308</v>
-      </c>
-      <c r="D205" t="s">
-        <v>816</v>
-      </c>
-      <c r="E205" t="s">
-        <v>1307</v>
-      </c>
-      <c r="F205">
-        <v>2015</v>
-      </c>
-      <c r="J205" t="s">
-        <v>1309</v>
-      </c>
-      <c r="AN205" t="s">
         <v>944</v>
       </c>
     </row>

--- a/5_Snowballing/Merged_Studies_3.xlsx
+++ b/5_Snowballing/Merged_Studies_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniotrovato/Documents/GitHub/RegressionTestingOptimizationSLR/5_Snowballing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CF7CE1-7C75-B54E-B3B2-7647D618A2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E869D69E-236A-E34E-970A-766510F77EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="10000" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4372,8 +4372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ169" workbookViewId="0">
-      <selection activeCell="AN125" sqref="AN125"/>
+    <sheetView tabSelected="1" topLeftCell="AH67" workbookViewId="0">
+      <selection activeCell="AN97" sqref="AN97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5865,7 +5865,7 @@
         <v>866</v>
       </c>
       <c r="AN34" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.2">
@@ -8520,7 +8520,7 @@
         <v>929</v>
       </c>
       <c r="AN97" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="98" spans="1:40" x14ac:dyDescent="0.2">

--- a/5_Snowballing/Merged_Studies_3.xlsx
+++ b/5_Snowballing/Merged_Studies_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniotrovato/Documents/GitHub/RegressionTestingOptimizationSLR/5_Snowballing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E869D69E-236A-E34E-970A-766510F77EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CF7CE1-7C75-B54E-B3B2-7647D618A2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="10000" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4372,8 +4372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH67" workbookViewId="0">
-      <selection activeCell="AN97" sqref="AN97"/>
+    <sheetView tabSelected="1" topLeftCell="AJ169" workbookViewId="0">
+      <selection activeCell="AN125" sqref="AN125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5865,7 +5865,7 @@
         <v>866</v>
       </c>
       <c r="AN34" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.2">
@@ -8520,7 +8520,7 @@
         <v>929</v>
       </c>
       <c r="AN97" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="98" spans="1:40" x14ac:dyDescent="0.2">
@@ -11029,4 +11029,231 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B6889C2593FACB4192549183B8B19287" ma:contentTypeVersion="11" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="8f919e2780f892880bff7efb43d3db1d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ab92c565-5003-4ac3-93a3-a3ce8796a3c0" xmlns:ns3="aa1b21cb-23df-461b-8b8e-4aaeac2f3f50" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1ca4d89da73e1329ebe7ff2e4ed471c6" ns2:_="" ns3:_="">
+    <xsd:import namespace="ab92c565-5003-4ac3-93a3-a3ce8796a3c0"/>
+    <xsd:import namespace="aa1b21cb-23df-461b-8b8e-4aaeac2f3f50"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ab92c565-5003-4ac3-93a3-a3ce8796a3c0" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="75195dc1-fe89-472b-8717-1a0640488213" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="aa1b21cb-23df-461b-8b8e-4aaeac2f3f50" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{9d5b2749-c0c4-4483-901e-60ca1fd7f0c8}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="aa1b21cb-23df-461b-8b8e-4aaeac2f3f50">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab92c565-5003-4ac3-93a3-a3ce8796a3c0">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="aa1b21cb-23df-461b-8b8e-4aaeac2f3f50" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99CBEF94-1D47-48BE-AD33-518B5390AF03}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C54EB65-76B8-485C-95C9-FDA0BA22D9B0}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8819F48-7B72-43AF-AD68-E89993DDD9B1}"/>
 </file>